--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_38.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1696500.001802316</v>
+        <v>1692041.436501862</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5217644.566383595</v>
+        <v>5371810.097473022</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11257829.936454</v>
+        <v>11295210.39205638</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6234960.363994938</v>
+        <v>6208099.637763878</v>
       </c>
     </row>
     <row r="11">
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>16.95787347203912</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>14.93649495417205</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="X20" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="X21" t="n">
-        <v>14.93649495417205</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="H22" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="I22" t="n">
-        <v>10.97394768891435</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="J22" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Y23" t="n">
-        <v>14.93649495417205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14.93649495417205</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,13 +2403,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>14.93649495417205</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Y25" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2555,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>14.93649495417205</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2685,19 +2685,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>14.93649495417205</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="W27" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14.93649495417205</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="T28" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>16.95787347203912</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="V28" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,13 +2792,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>2.410894176232972</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2837,13 +2837,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>12.52560077793908</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="T29" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Y29" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="U30" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="V30" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>16.95787347203912</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="Y30" t="n">
-        <v>14.93649495417205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>14.93649495417205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>16.95787347203912</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="V31" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>14.93649495417205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="C33" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>10.10154840142812</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="E33" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3159,10 +3159,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>4.834946552743925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>8.077530859720611</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.858964094451436</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,13 +3244,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>16.95787347203912</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>14.93649495417205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3396,16 +3396,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="U36" t="n">
-        <v>14.93649495417205</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3424,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>9.090445483358536</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>5.846049470813511</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="X37" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,19 +3509,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="F38" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="H38" t="n">
-        <v>14.93649495417205</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="I38" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="D39" t="n">
-        <v>10.10154840142812</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3636,16 +3636,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>4.834946552743925</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="C40" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>11.27195585500172</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>3.664539099170324</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3746,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3785,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>14.93649495417205</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>14.93649495417205</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,16 +3867,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>14.93649495417205</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="S43" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
     </row>
     <row r="44">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35.6149601243068</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="C20" t="n">
-        <v>35.6149601243068</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="D20" t="n">
-        <v>35.6149601243068</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="E20" t="n">
-        <v>35.6149601243068</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="F20" t="n">
-        <v>35.6149601243068</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="G20" t="n">
-        <v>35.6149601243068</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="H20" t="n">
-        <v>18.48579500103497</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="I20" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J20" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K20" t="n">
-        <v>18.14492461508186</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="L20" t="n">
-        <v>34.93321935240058</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="M20" t="n">
-        <v>51.04319915083775</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="N20" t="n">
-        <v>51.04319915083775</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="O20" t="n">
-        <v>51.04319915083775</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P20" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q20" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R20" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S20" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T20" t="n">
-        <v>67.83149388815647</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="U20" t="n">
-        <v>67.83149388815647</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="V20" t="n">
-        <v>67.83149388815647</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="W20" t="n">
-        <v>52.74412524757864</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="X20" t="n">
-        <v>35.6149601243068</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="Y20" t="n">
-        <v>35.6149601243068</v>
+        <v>3.514264292222054</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.356629877763129</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="C21" t="n">
-        <v>1.356629877763129</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="D21" t="n">
-        <v>1.356629877763129</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="E21" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F21" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G21" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H21" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I21" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J21" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K21" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L21" t="n">
-        <v>1.356629877763129</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="M21" t="n">
-        <v>1.356629877763129</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="N21" t="n">
-        <v>17.4666096762003</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="O21" t="n">
-        <v>34.25490441351903</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="P21" t="n">
-        <v>51.04319915083775</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="Q21" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R21" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S21" t="n">
-        <v>50.70232876488463</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T21" t="n">
-        <v>50.70232876488463</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U21" t="n">
-        <v>33.57316364161279</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="V21" t="n">
-        <v>33.57316364161279</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="W21" t="n">
-        <v>16.44399851834095</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="X21" t="n">
-        <v>1.356629877763129</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.356629877763129</v>
+        <v>7.174956263286695</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>67.83149388815647</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="C22" t="n">
-        <v>67.83149388815647</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="D22" t="n">
-        <v>67.83149388815647</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="E22" t="n">
-        <v>67.83149388815647</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="F22" t="n">
-        <v>50.70232876488463</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="G22" t="n">
-        <v>33.57316364161279</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="H22" t="n">
-        <v>16.44399851834095</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="I22" t="n">
-        <v>5.359202872972925</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J22" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K22" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L22" t="n">
-        <v>18.14492461508186</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="M22" t="n">
-        <v>34.93321935240058</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="N22" t="n">
-        <v>51.72151408971931</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="O22" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P22" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R22" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S22" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T22" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U22" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="V22" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="W22" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="X22" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Y22" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35.6149601243068</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="C23" t="n">
-        <v>35.6149601243068</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="D23" t="n">
-        <v>18.48579500103497</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="E23" t="n">
-        <v>18.48579500103497</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="F23" t="n">
-        <v>18.48579500103497</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="G23" t="n">
-        <v>18.48579500103497</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="H23" t="n">
-        <v>18.48579500103497</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="I23" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J23" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K23" t="n">
-        <v>17.4666096762003</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="L23" t="n">
-        <v>17.4666096762003</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="M23" t="n">
-        <v>17.4666096762003</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="N23" t="n">
-        <v>34.25490441351903</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="O23" t="n">
-        <v>51.04319915083775</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="P23" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q23" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R23" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S23" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T23" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U23" t="n">
-        <v>67.83149388815647</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="V23" t="n">
-        <v>67.83149388815647</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="W23" t="n">
-        <v>67.83149388815647</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="X23" t="n">
-        <v>67.83149388815647</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="Y23" t="n">
-        <v>52.74412524757864</v>
+        <v>3.950618775172961</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.356629877763129</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="C24" t="n">
-        <v>1.356629877763129</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="D24" t="n">
-        <v>1.356629877763129</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="E24" t="n">
-        <v>1.356629877763129</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="F24" t="n">
-        <v>1.356629877763129</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="G24" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H24" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I24" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J24" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K24" t="n">
-        <v>1.356629877763129</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="L24" t="n">
-        <v>1.356629877763129</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="M24" t="n">
-        <v>18.14492461508186</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="N24" t="n">
-        <v>34.93321935240058</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="O24" t="n">
-        <v>51.72151408971931</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P24" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q24" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R24" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S24" t="n">
-        <v>67.83149388815647</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="T24" t="n">
-        <v>67.83149388815647</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="U24" t="n">
-        <v>67.83149388815647</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="V24" t="n">
-        <v>67.83149388815647</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="W24" t="n">
-        <v>50.70232876488463</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="X24" t="n">
-        <v>33.57316364161279</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.44399851834095</v>
+        <v>11.27200271730224</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.44399851834095</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="C25" t="n">
-        <v>16.44399851834095</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="D25" t="n">
-        <v>16.44399851834095</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="E25" t="n">
-        <v>16.44399851834095</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="F25" t="n">
-        <v>16.44399851834095</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="G25" t="n">
-        <v>16.44399851834095</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="H25" t="n">
-        <v>16.44399851834095</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="I25" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J25" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K25" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L25" t="n">
-        <v>18.14492461508186</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="M25" t="n">
-        <v>34.93321935240058</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="N25" t="n">
-        <v>51.04319915083775</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="O25" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P25" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R25" t="n">
-        <v>50.70232876488463</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S25" t="n">
-        <v>50.70232876488463</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T25" t="n">
-        <v>50.70232876488463</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U25" t="n">
-        <v>33.57316364161279</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="V25" t="n">
-        <v>33.57316364161279</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="W25" t="n">
-        <v>33.57316364161279</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="X25" t="n">
-        <v>33.57316364161279</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="Y25" t="n">
-        <v>16.44399851834095</v>
+        <v>7.611310746237603</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>52.74412524757864</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="C26" t="n">
-        <v>35.6149601243068</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="D26" t="n">
-        <v>18.48579500103497</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="E26" t="n">
-        <v>1.356629877763129</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="F26" t="n">
-        <v>1.356629877763129</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="G26" t="n">
-        <v>1.356629877763129</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="H26" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I26" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J26" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K26" t="n">
-        <v>18.14492461508186</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="L26" t="n">
-        <v>34.25490441351903</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="M26" t="n">
-        <v>34.25490441351903</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="N26" t="n">
-        <v>34.25490441351903</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="O26" t="n">
-        <v>51.04319915083775</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P26" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q26" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R26" t="n">
-        <v>52.74412524757864</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S26" t="n">
-        <v>52.74412524757864</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="T26" t="n">
-        <v>52.74412524757864</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="U26" t="n">
-        <v>52.74412524757864</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="V26" t="n">
-        <v>52.74412524757864</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="W26" t="n">
-        <v>52.74412524757864</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="X26" t="n">
-        <v>52.74412524757864</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="Y26" t="n">
-        <v>52.74412524757864</v>
+        <v>10.83564823435134</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.356629877763129</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="C27" t="n">
-        <v>1.356629877763129</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="D27" t="n">
-        <v>1.356629877763129</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="E27" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F27" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G27" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H27" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I27" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J27" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K27" t="n">
-        <v>18.14492461508186</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="L27" t="n">
-        <v>34.93321935240058</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="M27" t="n">
-        <v>51.72151408971931</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="N27" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="O27" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P27" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q27" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R27" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S27" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T27" t="n">
-        <v>52.74412524757864</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U27" t="n">
-        <v>35.6149601243068</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="V27" t="n">
-        <v>18.48579500103497</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="W27" t="n">
-        <v>1.356629877763129</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="X27" t="n">
-        <v>1.356629877763129</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.356629877763129</v>
+        <v>3.514264292222054</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="C28" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="D28" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="E28" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F28" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G28" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H28" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I28" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J28" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K28" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L28" t="n">
-        <v>18.14492461508186</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="M28" t="n">
-        <v>34.93321935240058</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="N28" t="n">
-        <v>51.04319915083775</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="O28" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P28" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R28" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S28" t="n">
-        <v>67.83149388815647</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="T28" t="n">
-        <v>50.70232876488463</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="U28" t="n">
-        <v>33.57316364161279</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="V28" t="n">
-        <v>16.44399851834095</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="W28" t="n">
-        <v>16.44399851834095</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="X28" t="n">
-        <v>16.44399851834095</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="Y28" t="n">
-        <v>16.44399851834095</v>
+        <v>0.2899268041083196</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3.791876520422697</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="C29" t="n">
-        <v>1.356629877763129</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="D29" t="n">
-        <v>1.356629877763129</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="E29" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F29" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G29" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H29" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I29" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J29" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K29" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L29" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="M29" t="n">
-        <v>17.4666096762003</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="N29" t="n">
-        <v>34.25490441351903</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="O29" t="n">
-        <v>51.04319915083775</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="P29" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q29" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R29" t="n">
-        <v>55.17937189023822</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S29" t="n">
-        <v>55.17937189023822</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="T29" t="n">
-        <v>38.05020676696638</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="U29" t="n">
-        <v>38.05020676696638</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="V29" t="n">
-        <v>38.05020676696638</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="W29" t="n">
-        <v>20.92104164369454</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="X29" t="n">
-        <v>20.92104164369454</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="Y29" t="n">
-        <v>3.791876520422697</v>
+        <v>3.950618775172961</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="C30" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="D30" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="E30" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F30" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G30" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H30" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I30" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J30" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K30" t="n">
-        <v>18.14492461508186</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L30" t="n">
-        <v>34.93321935240058</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="M30" t="n">
-        <v>51.72151408971931</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="N30" t="n">
-        <v>67.83149388815647</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="O30" t="n">
-        <v>67.83149388815647</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="P30" t="n">
-        <v>67.83149388815647</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="Q30" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R30" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S30" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T30" t="n">
-        <v>67.83149388815647</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="U30" t="n">
-        <v>50.70232876488463</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="V30" t="n">
-        <v>33.57316364161279</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="W30" t="n">
-        <v>33.57316364161279</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="X30" t="n">
-        <v>16.44399851834095</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.44399851834095</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="C31" t="n">
-        <v>16.44399851834095</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="D31" t="n">
-        <v>16.44399851834095</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="E31" t="n">
-        <v>16.44399851834095</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F31" t="n">
-        <v>16.44399851834095</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G31" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H31" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I31" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J31" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K31" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L31" t="n">
-        <v>18.14492461508186</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="M31" t="n">
-        <v>34.25490441351903</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="N31" t="n">
-        <v>51.04319915083775</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="O31" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P31" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q31" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R31" t="n">
-        <v>50.70232876488463</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S31" t="n">
-        <v>33.57316364161279</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="T31" t="n">
-        <v>33.57316364161279</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="U31" t="n">
-        <v>33.57316364161279</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="V31" t="n">
-        <v>16.44399851834095</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="W31" t="n">
-        <v>16.44399851834095</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="X31" t="n">
-        <v>16.44399851834095</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="Y31" t="n">
-        <v>16.44399851834095</v>
+        <v>0.2899268041083196</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.6149601243068</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="C32" t="n">
-        <v>35.6149601243068</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="D32" t="n">
-        <v>18.48579500103497</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="E32" t="n">
-        <v>1.356629877763129</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="F32" t="n">
-        <v>1.356629877763129</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="G32" t="n">
-        <v>1.356629877763129</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="H32" t="n">
-        <v>1.356629877763129</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="I32" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J32" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K32" t="n">
-        <v>18.14492461508186</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L32" t="n">
-        <v>18.14492461508186</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="M32" t="n">
-        <v>18.14492461508186</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="N32" t="n">
-        <v>34.25490441351903</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="O32" t="n">
-        <v>51.04319915083775</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="P32" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q32" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R32" t="n">
-        <v>67.83149388815647</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="S32" t="n">
-        <v>67.83149388815647</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="T32" t="n">
-        <v>67.83149388815647</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="U32" t="n">
-        <v>67.83149388815647</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="V32" t="n">
-        <v>67.83149388815647</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="W32" t="n">
-        <v>67.83149388815647</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="X32" t="n">
-        <v>67.83149388815647</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="Y32" t="n">
-        <v>52.74412524757864</v>
+        <v>11.27200271730224</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>45.8185443681736</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="C33" t="n">
-        <v>28.68937924490176</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="D33" t="n">
-        <v>18.48579500103497</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="E33" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F33" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G33" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H33" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I33" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J33" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K33" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L33" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="M33" t="n">
-        <v>1.356629877763129</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="N33" t="n">
-        <v>17.4666096762003</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="O33" t="n">
-        <v>34.25490441351903</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="P33" t="n">
-        <v>51.04319915083775</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q33" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R33" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S33" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T33" t="n">
-        <v>67.83149388815647</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="U33" t="n">
-        <v>67.83149388815647</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="V33" t="n">
-        <v>67.83149388815647</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="W33" t="n">
-        <v>67.83149388815647</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="X33" t="n">
-        <v>67.83149388815647</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="Y33" t="n">
-        <v>62.94770949144544</v>
+        <v>7.174956263286695</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33.57316364161279</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="C34" t="n">
-        <v>33.57316364161279</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="D34" t="n">
-        <v>33.57316364161279</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="E34" t="n">
-        <v>33.57316364161279</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F34" t="n">
-        <v>25.41404156108693</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G34" t="n">
-        <v>25.41404156108693</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H34" t="n">
-        <v>18.48579500103497</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I34" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J34" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K34" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L34" t="n">
-        <v>18.14492461508186</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="M34" t="n">
-        <v>34.93321935240058</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="N34" t="n">
-        <v>51.04319915083775</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="O34" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P34" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q34" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R34" t="n">
-        <v>50.70232876488463</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S34" t="n">
-        <v>50.70232876488463</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T34" t="n">
-        <v>50.70232876488463</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U34" t="n">
-        <v>50.70232876488463</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="V34" t="n">
-        <v>33.57316364161279</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="W34" t="n">
-        <v>33.57316364161279</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="X34" t="n">
-        <v>33.57316364161279</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="Y34" t="n">
-        <v>33.57316364161279</v>
+        <v>3.514264292222054</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.6149601243068</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="C35" t="n">
-        <v>35.6149601243068</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="D35" t="n">
-        <v>18.48579500103497</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="E35" t="n">
-        <v>1.356629877763129</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="F35" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G35" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H35" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I35" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J35" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K35" t="n">
-        <v>18.14492461508186</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="L35" t="n">
-        <v>34.93321935240058</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="M35" t="n">
-        <v>51.72151408971931</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="N35" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="O35" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P35" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q35" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R35" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S35" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T35" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U35" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="V35" t="n">
-        <v>50.70232876488463</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="W35" t="n">
-        <v>50.70232876488463</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="X35" t="n">
-        <v>50.70232876488463</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.6149601243068</v>
+        <v>11.27200271730224</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>18.48579500103497</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="C36" t="n">
-        <v>18.48579500103497</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="D36" t="n">
-        <v>18.48579500103497</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="E36" t="n">
-        <v>1.356629877763129</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="F36" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G36" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H36" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I36" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J36" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K36" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L36" t="n">
-        <v>17.4666096762003</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="M36" t="n">
-        <v>34.25490441351903</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="N36" t="n">
-        <v>51.04319915083775</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="O36" t="n">
-        <v>67.83149388815647</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="P36" t="n">
-        <v>67.83149388815647</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="Q36" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R36" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S36" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T36" t="n">
-        <v>67.83149388815647</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="U36" t="n">
-        <v>52.74412524757864</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="V36" t="n">
-        <v>52.74412524757864</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="W36" t="n">
-        <v>35.6149601243068</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="X36" t="n">
-        <v>35.6149601243068</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="Y36" t="n">
-        <v>35.6149601243068</v>
+        <v>7.174956263286695</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>33.57316364161279</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="C37" t="n">
-        <v>16.44399851834095</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="D37" t="n">
-        <v>16.44399851834095</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="E37" t="n">
-        <v>7.261730353332332</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F37" t="n">
-        <v>7.261730353332332</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G37" t="n">
-        <v>7.261730353332332</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H37" t="n">
-        <v>7.261730353332332</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I37" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J37" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K37" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L37" t="n">
-        <v>18.14492461508186</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="M37" t="n">
-        <v>34.93321935240058</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="N37" t="n">
-        <v>51.72151408971931</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="O37" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P37" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R37" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S37" t="n">
-        <v>50.70232876488463</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T37" t="n">
-        <v>50.70232876488463</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="U37" t="n">
-        <v>50.70232876488463</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="V37" t="n">
-        <v>50.70232876488463</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="W37" t="n">
-        <v>50.70232876488463</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="X37" t="n">
-        <v>33.57316364161279</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="Y37" t="n">
-        <v>33.57316364161279</v>
+        <v>0.2899268041083196</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50.70232876488463</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="C38" t="n">
-        <v>50.70232876488463</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="D38" t="n">
-        <v>50.70232876488463</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="E38" t="n">
-        <v>50.70232876488463</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="F38" t="n">
-        <v>33.57316364161279</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="G38" t="n">
-        <v>33.57316364161279</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="H38" t="n">
-        <v>18.48579500103497</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I38" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J38" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K38" t="n">
-        <v>1.356629877763129</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="L38" t="n">
-        <v>18.14492461508186</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="M38" t="n">
-        <v>34.93321935240058</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="N38" t="n">
-        <v>51.72151408971931</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="O38" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P38" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q38" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R38" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S38" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T38" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U38" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="V38" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="W38" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="X38" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Y38" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>11.56021412162992</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="C39" t="n">
-        <v>11.56021412162992</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="D39" t="n">
-        <v>1.356629877763129</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="E39" t="n">
-        <v>1.356629877763129</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="F39" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G39" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H39" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I39" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J39" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K39" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L39" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="M39" t="n">
-        <v>17.4666096762003</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="N39" t="n">
-        <v>34.25490441351903</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="O39" t="n">
-        <v>51.04319915083775</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="P39" t="n">
-        <v>67.83149388815647</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="Q39" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R39" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S39" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T39" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U39" t="n">
-        <v>62.94770949144544</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="V39" t="n">
-        <v>62.94770949144544</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="W39" t="n">
-        <v>45.8185443681736</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="X39" t="n">
-        <v>28.68937924490176</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="Y39" t="n">
-        <v>28.68937924490176</v>
+        <v>10.83564823435134</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>33.57316364161279</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="C40" t="n">
-        <v>16.44399851834095</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="D40" t="n">
-        <v>5.05818452338972</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="E40" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F40" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G40" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H40" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I40" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J40" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K40" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L40" t="n">
-        <v>17.4666096762003</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="M40" t="n">
-        <v>34.25490441351903</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="N40" t="n">
-        <v>51.04319915083775</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="O40" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P40" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R40" t="n">
-        <v>50.70232876488463</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="S40" t="n">
-        <v>50.70232876488463</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="T40" t="n">
-        <v>50.70232876488463</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="U40" t="n">
-        <v>50.70232876488463</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="V40" t="n">
-        <v>50.70232876488463</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="W40" t="n">
-        <v>50.70232876488463</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="X40" t="n">
-        <v>33.57316364161279</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="Y40" t="n">
-        <v>33.57316364161279</v>
+        <v>3.950618775172961</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.6149601243068</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="C41" t="n">
-        <v>35.6149601243068</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="D41" t="n">
-        <v>35.6149601243068</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="E41" t="n">
-        <v>18.48579500103497</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="F41" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G41" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H41" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I41" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J41" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K41" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L41" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="M41" t="n">
-        <v>17.4666096762003</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="N41" t="n">
-        <v>34.25490441351903</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="O41" t="n">
-        <v>51.04319915083775</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="P41" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q41" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R41" t="n">
-        <v>67.83149388815647</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="S41" t="n">
-        <v>67.83149388815647</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="T41" t="n">
-        <v>52.74412524757864</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="U41" t="n">
-        <v>52.74412524757864</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="V41" t="n">
-        <v>52.74412524757864</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="W41" t="n">
-        <v>52.74412524757864</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="X41" t="n">
-        <v>52.74412524757864</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.6149601243068</v>
+        <v>3.950618775172961</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>35.6149601243068</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="C42" t="n">
-        <v>18.48579500103497</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="D42" t="n">
-        <v>1.356629877763129</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="E42" t="n">
-        <v>1.356629877763129</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="F42" t="n">
-        <v>1.356629877763129</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="G42" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H42" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I42" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J42" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K42" t="n">
-        <v>1.356629877763129</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="L42" t="n">
-        <v>18.14492461508186</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="M42" t="n">
-        <v>34.93321935240058</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="N42" t="n">
-        <v>51.04319915083775</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="O42" t="n">
-        <v>51.04319915083775</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P42" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q42" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R42" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S42" t="n">
-        <v>50.70232876488463</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="T42" t="n">
-        <v>50.70232876488463</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="U42" t="n">
-        <v>50.70232876488463</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="V42" t="n">
-        <v>50.70232876488463</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="W42" t="n">
-        <v>50.70232876488463</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="X42" t="n">
-        <v>50.70232876488463</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="Y42" t="n">
-        <v>50.70232876488463</v>
+        <v>3.514264292222054</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33.57316364161279</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="C43" t="n">
-        <v>33.57316364161279</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="D43" t="n">
-        <v>33.57316364161279</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="E43" t="n">
-        <v>33.57316364161279</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="F43" t="n">
-        <v>33.57316364161279</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G43" t="n">
-        <v>33.57316364161279</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H43" t="n">
-        <v>18.48579500103497</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I43" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J43" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K43" t="n">
-        <v>1.356629877763129</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L43" t="n">
-        <v>17.4666096762003</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="M43" t="n">
-        <v>34.25490441351903</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="N43" t="n">
-        <v>51.04319915083775</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="O43" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P43" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.83149388815647</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R43" t="n">
-        <v>67.83149388815647</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="S43" t="n">
-        <v>50.70232876488463</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="T43" t="n">
-        <v>50.70232876488463</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="U43" t="n">
-        <v>50.70232876488463</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="V43" t="n">
-        <v>50.70232876488463</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="W43" t="n">
-        <v>50.70232876488463</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="X43" t="n">
-        <v>50.70232876488463</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="Y43" t="n">
-        <v>33.57316364161279</v>
+        <v>7.174956263286695</v>
       </c>
     </row>
     <row r="44">
@@ -9401,22 +9401,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>237.0477245170197</v>
+        <v>223.7139360963345</v>
       </c>
       <c r="L20" t="n">
-        <v>252.7242884420264</v>
+        <v>239.3905000213412</v>
       </c>
       <c r="M20" t="n">
-        <v>246.618940094381</v>
+        <v>233.9703182786267</v>
       </c>
       <c r="N20" t="n">
-        <v>229.4130635965909</v>
+        <v>232.8907209691023</v>
       </c>
       <c r="O20" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
-        <v>248.1908692273087</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9483,22 +9483,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>142.1784648312282</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>145.7581189733723</v>
       </c>
       <c r="N21" t="n">
-        <v>147.6144189504416</v>
+        <v>134.9657971346873</v>
       </c>
       <c r="O21" t="n">
-        <v>159.5541179164836</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>150.9322808863694</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>156.9396475580606</v>
+        <v>143.4594314585329</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9562,16 +9562,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>151.8425497532774</v>
+        <v>138.3623336537497</v>
       </c>
       <c r="M22" t="n">
-        <v>155.8836574196442</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N22" t="n">
-        <v>144.6434179372723</v>
+        <v>131.3096295165872</v>
       </c>
       <c r="O22" t="n">
-        <v>154.729245318951</v>
+        <v>142.0806235031968</v>
       </c>
       <c r="P22" t="n">
         <v>135.0065633140411</v>
@@ -9638,22 +9638,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>236.3625579120888</v>
+        <v>223.7139360963345</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>239.3905000213412</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>233.9703182786267</v>
       </c>
       <c r="N23" t="n">
-        <v>246.37093706863</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>247.0560848937259</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
-        <v>248.1908692273087</v>
+        <v>234.7106531277809</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>141.465524025713</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>142.1784648312282</v>
       </c>
       <c r="M24" t="n">
-        <v>159.0919073940574</v>
+        <v>145.7581189733723</v>
       </c>
       <c r="N24" t="n">
-        <v>148.2995855553724</v>
+        <v>134.8193694558447</v>
       </c>
       <c r="O24" t="n">
-        <v>159.5541179164836</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>150.2471142814385</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9799,16 +9799,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>151.8425497532774</v>
+        <v>138.3623336537497</v>
       </c>
       <c r="M25" t="n">
-        <v>155.8836574196442</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N25" t="n">
-        <v>143.9582513323414</v>
+        <v>131.3096295165872</v>
       </c>
       <c r="O25" t="n">
-        <v>155.4144119238819</v>
+        <v>142.0806235031968</v>
       </c>
       <c r="P25" t="n">
         <v>135.0065633140411</v>
@@ -9875,22 +9875,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>237.0477245170197</v>
+        <v>223.567508417492</v>
       </c>
       <c r="L26" t="n">
-        <v>252.0391218370955</v>
+        <v>239.3905000213412</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>233.9703182786267</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>233.0371486479449</v>
       </c>
       <c r="O26" t="n">
-        <v>247.0560848937259</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
-        <v>248.1908692273087</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>154.7993124463981</v>
+        <v>141.3190963468704</v>
       </c>
       <c r="L27" t="n">
-        <v>155.5122532519133</v>
+        <v>142.1784648312282</v>
       </c>
       <c r="M27" t="n">
-        <v>159.0919073940574</v>
+        <v>145.7581189733723</v>
       </c>
       <c r="N27" t="n">
-        <v>147.6144189504415</v>
+        <v>134.9657971346873</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -10036,16 +10036,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>151.8425497532774</v>
+        <v>138.3623336537497</v>
       </c>
       <c r="M28" t="n">
-        <v>155.8836574196442</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N28" t="n">
-        <v>143.9582513323414</v>
+        <v>131.3096295165872</v>
       </c>
       <c r="O28" t="n">
-        <v>155.4144119238819</v>
+        <v>142.0806235031968</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10118,16 +10118,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
-        <v>246.618940094381</v>
+        <v>233.9703182786267</v>
       </c>
       <c r="N29" t="n">
-        <v>246.37093706863</v>
+        <v>232.8907209691023</v>
       </c>
       <c r="O29" t="n">
-        <v>247.0560848937259</v>
+        <v>233.7222964730407</v>
       </c>
       <c r="P29" t="n">
-        <v>248.1908692273087</v>
+        <v>234.8570808066235</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>154.7993124463981</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>155.5122532519133</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>159.0919073940574</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>147.6144189504415</v>
+        <v>134.8193694558447</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>146.2203294957984</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>137.5984924656842</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>143.6058591373755</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10273,16 +10273,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>151.8425497532774</v>
+        <v>138.3623336537497</v>
       </c>
       <c r="M31" t="n">
-        <v>155.1984908147133</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N31" t="n">
-        <v>144.6434179372723</v>
+        <v>131.3096295165872</v>
       </c>
       <c r="O31" t="n">
-        <v>155.4144119238819</v>
+        <v>142.0806235031968</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
@@ -10349,22 +10349,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>237.0477245170197</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
-        <v>230.3462332272727</v>
+        <v>233.9703182786267</v>
       </c>
       <c r="N32" t="n">
-        <v>245.6857704636992</v>
+        <v>232.8907209691023</v>
       </c>
       <c r="O32" t="n">
-        <v>247.0560848937259</v>
+        <v>233.7222964730407</v>
       </c>
       <c r="P32" t="n">
-        <v>248.1908692273087</v>
+        <v>234.8570808066235</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10434,19 +10434,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>145.6116912945297</v>
       </c>
       <c r="N33" t="n">
-        <v>147.6144189504416</v>
+        <v>134.9657971346873</v>
       </c>
       <c r="O33" t="n">
-        <v>159.5541179164836</v>
+        <v>146.2203294957984</v>
       </c>
       <c r="P33" t="n">
-        <v>150.9322808863694</v>
+        <v>137.5984924656842</v>
       </c>
       <c r="Q33" t="n">
-        <v>156.9396475580606</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10510,16 +10510,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>151.8425497532774</v>
+        <v>138.3623336537497</v>
       </c>
       <c r="M34" t="n">
-        <v>155.8836574196442</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N34" t="n">
-        <v>143.9582513323414</v>
+        <v>131.3096295165872</v>
       </c>
       <c r="O34" t="n">
-        <v>155.4144119238819</v>
+        <v>142.0806235031968</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10586,16 +10586,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>237.0477245170197</v>
+        <v>223.7139360963345</v>
       </c>
       <c r="L35" t="n">
-        <v>252.7242884420264</v>
+        <v>239.3905000213412</v>
       </c>
       <c r="M35" t="n">
-        <v>247.3041066993119</v>
+        <v>233.9703182786267</v>
       </c>
       <c r="N35" t="n">
-        <v>245.6857704636992</v>
+        <v>232.8907209691023</v>
       </c>
       <c r="O35" t="n">
         <v>230.0982114216867</v>
@@ -10668,22 +10668,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>154.8270866469824</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>159.0919073940574</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>148.2995855553724</v>
+        <v>134.9657971346873</v>
       </c>
       <c r="O36" t="n">
-        <v>159.5541179164836</v>
+        <v>146.0739018169558</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>137.5984924656842</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>143.6058591373755</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10747,16 +10747,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>151.8425497532774</v>
+        <v>138.5087613325923</v>
       </c>
       <c r="M37" t="n">
-        <v>155.8836574196442</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N37" t="n">
-        <v>144.6434179372723</v>
+        <v>131.3096295165872</v>
       </c>
       <c r="O37" t="n">
-        <v>154.729245318951</v>
+        <v>141.9341958243542</v>
       </c>
       <c r="P37" t="n">
         <v>135.0065633140411</v>
@@ -10823,19 +10823,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>223.7139360963345</v>
       </c>
       <c r="L38" t="n">
-        <v>252.7242884420264</v>
+        <v>239.3905000213412</v>
       </c>
       <c r="M38" t="n">
-        <v>247.3041066993119</v>
+        <v>233.9703182786267</v>
       </c>
       <c r="N38" t="n">
-        <v>246.37093706863</v>
+        <v>232.8907209691023</v>
       </c>
       <c r="O38" t="n">
-        <v>246.370918288795</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
         <v>231.2329957552695</v>
@@ -10908,19 +10908,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>158.4067407891266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>148.2995855553724</v>
+        <v>134.9657971346873</v>
       </c>
       <c r="O39" t="n">
-        <v>159.5541179164836</v>
+        <v>146.2203294957984</v>
       </c>
       <c r="P39" t="n">
-        <v>150.9322808863694</v>
+        <v>137.4520647868416</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>143.6058591373755</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10984,16 +10984,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>151.1573831483465</v>
+        <v>138.5087613325923</v>
       </c>
       <c r="M40" t="n">
-        <v>155.8836574196442</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N40" t="n">
-        <v>144.6434179372723</v>
+        <v>131.3096295165872</v>
       </c>
       <c r="O40" t="n">
-        <v>155.4144119238819</v>
+        <v>141.9341958243542</v>
       </c>
       <c r="P40" t="n">
         <v>135.0065633140411</v>
@@ -11066,16 +11066,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>246.618940094381</v>
+        <v>233.8238905997841</v>
       </c>
       <c r="N41" t="n">
-        <v>246.37093706863</v>
+        <v>233.0371486479449</v>
       </c>
       <c r="O41" t="n">
-        <v>247.0560848937259</v>
+        <v>233.7222964730407</v>
       </c>
       <c r="P41" t="n">
-        <v>248.1908692273087</v>
+        <v>234.8570808066235</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>141.3190963468704</v>
       </c>
       <c r="L42" t="n">
-        <v>155.5122532519133</v>
+        <v>142.1784648312282</v>
       </c>
       <c r="M42" t="n">
-        <v>159.0919073940574</v>
+        <v>145.7581189733723</v>
       </c>
       <c r="N42" t="n">
-        <v>147.6144189504415</v>
+        <v>134.9657971346873</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>150.9322808863694</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11221,16 +11221,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>151.1573831483465</v>
+        <v>138.3623336537497</v>
       </c>
       <c r="M43" t="n">
-        <v>155.8836574196442</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N43" t="n">
-        <v>144.6434179372723</v>
+        <v>131.3096295165872</v>
       </c>
       <c r="O43" t="n">
-        <v>155.4144119238819</v>
+        <v>142.0806235031968</v>
       </c>
       <c r="P43" t="n">
         <v>135.0065633140411</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>293.3372088120655</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C14" t="n">
-        <v>275.8762589195925</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D14" t="n">
-        <v>265.2864087692679</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E14" t="n">
-        <v>292.5337372208467</v>
+        <v>288.571189955589</v>
       </c>
       <c r="F14" t="n">
-        <v>317.4794128902964</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G14" t="n">
-        <v>325.90610466372</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H14" t="n">
-        <v>250.0781692643521</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I14" t="n">
-        <v>121.0792567189908</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>60.4724850897346</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S14" t="n">
-        <v>119.6234367348303</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T14" t="n">
-        <v>133.6992167127163</v>
+        <v>129.7366694474586</v>
       </c>
       <c r="U14" t="n">
-        <v>161.9490200564214</v>
+        <v>157.9864727911637</v>
       </c>
       <c r="V14" t="n">
-        <v>238.3556256187198</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W14" t="n">
-        <v>259.8443358659979</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X14" t="n">
-        <v>280.334467827054</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y14" t="n">
-        <v>296.8413058046385</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23571,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.13655079845226</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C15" t="n">
-        <v>83.31186613690066</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D15" t="n">
-        <v>58.04843271322368</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E15" t="n">
-        <v>68.24844760398587</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F15" t="n">
-        <v>55.6725795419688</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G15" t="n">
-        <v>47.94688431179556</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H15" t="n">
-        <v>22.83881138508139</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>10.76120130122806</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S15" t="n">
-        <v>82.28653825242274</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T15" t="n">
-        <v>110.7680958434065</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U15" t="n">
-        <v>136.5447492295597</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V15" t="n">
-        <v>143.4039542980102</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W15" t="n">
-        <v>162.2983503095045</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X15" t="n">
-        <v>116.3763523520624</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y15" t="n">
-        <v>116.2860629258893</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.43534733052222</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C16" t="n">
-        <v>77.85018824721276</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D16" t="n">
-        <v>59.21884016679728</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E16" t="n">
-        <v>57.03732979515409</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F16" t="n">
-        <v>56.02441517151617</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G16" t="n">
-        <v>78.59434650704368</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H16" t="n">
-        <v>72.8305396560245</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I16" t="n">
-        <v>66.05384207584321</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J16" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>87.89675852575441</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S16" t="n">
-        <v>134.6199651855572</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T16" t="n">
-        <v>138.5489565768664</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U16" t="n">
-        <v>196.9223965050758</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V16" t="n">
-        <v>162.7410104724129</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W16" t="n">
-        <v>197.1263654851759</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X16" t="n">
-        <v>136.3130225376221</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.1880205006797</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>293.3372088120655</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C17" t="n">
-        <v>275.8762589195925</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D17" t="n">
-        <v>265.2864087692679</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E17" t="n">
-        <v>292.5337372208467</v>
+        <v>288.571189955589</v>
       </c>
       <c r="F17" t="n">
-        <v>317.4794128902964</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G17" t="n">
-        <v>325.90610466372</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H17" t="n">
-        <v>250.0781692643521</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I17" t="n">
-        <v>121.0792567189908</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>60.4724850897346</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S17" t="n">
-        <v>119.6234367348303</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T17" t="n">
-        <v>133.6992167127163</v>
+        <v>129.7366694474586</v>
       </c>
       <c r="U17" t="n">
-        <v>161.9490200564214</v>
+        <v>157.9864727911637</v>
       </c>
       <c r="V17" t="n">
-        <v>238.3556256187198</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W17" t="n">
-        <v>259.8443358659979</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X17" t="n">
-        <v>280.334467827054</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y17" t="n">
-        <v>296.8413058046385</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="18">
@@ -23808,25 +23808,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>77.13655079845226</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C18" t="n">
-        <v>83.31186613690066</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D18" t="n">
-        <v>58.04843271322368</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E18" t="n">
-        <v>68.24844760398587</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F18" t="n">
-        <v>55.6725795419688</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G18" t="n">
-        <v>47.94688431179556</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H18" t="n">
-        <v>22.83881138508139</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.76120130122806</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S18" t="n">
-        <v>82.28653825242274</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T18" t="n">
-        <v>110.7680958434065</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U18" t="n">
-        <v>136.5447492295597</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V18" t="n">
-        <v>143.4039542980102</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W18" t="n">
-        <v>162.2983503095045</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X18" t="n">
-        <v>116.3763523520624</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y18" t="n">
-        <v>116.2860629258893</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.43534733052222</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C19" t="n">
-        <v>77.85018824721276</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D19" t="n">
-        <v>59.21884016679728</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E19" t="n">
-        <v>57.03732979515409</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F19" t="n">
-        <v>56.02441517151617</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G19" t="n">
-        <v>78.59434650704368</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H19" t="n">
-        <v>72.8305396560245</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I19" t="n">
-        <v>66.05384207584321</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J19" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>87.89675852575441</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S19" t="n">
-        <v>134.6199651855572</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T19" t="n">
-        <v>138.5489565768664</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U19" t="n">
-        <v>196.9223965050758</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V19" t="n">
-        <v>162.7410104724129</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W19" t="n">
-        <v>197.1263654851759</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X19" t="n">
-        <v>136.3130225376221</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y19" t="n">
-        <v>129.1880205006797</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>293.3372088120655</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C20" t="n">
-        <v>275.8762589195925</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D20" t="n">
-        <v>265.2864087692679</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E20" t="n">
-        <v>292.5337372208467</v>
+        <v>288.571189955589</v>
       </c>
       <c r="F20" t="n">
-        <v>317.4794128902964</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G20" t="n">
-        <v>325.90610466372</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H20" t="n">
-        <v>233.120295792313</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I20" t="n">
-        <v>104.1213832469517</v>
+        <v>113.9246153405005</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>60.4724850897346</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S20" t="n">
-        <v>119.6234367348303</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T20" t="n">
-        <v>133.6992167127163</v>
+        <v>126.1125843961046</v>
       </c>
       <c r="U20" t="n">
-        <v>161.9490200564214</v>
+        <v>157.9864727911637</v>
       </c>
       <c r="V20" t="n">
-        <v>238.3556256187198</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W20" t="n">
-        <v>244.9078409118259</v>
+        <v>252.2577035493862</v>
       </c>
       <c r="X20" t="n">
-        <v>263.3765943550148</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y20" t="n">
-        <v>296.8413058046385</v>
+        <v>289.2546734880268</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24045,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77.13655079845226</v>
+        <v>69.54991848184056</v>
       </c>
       <c r="C21" t="n">
-        <v>83.31186613690066</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D21" t="n">
-        <v>58.04843271322368</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E21" t="n">
-        <v>68.24844760398587</v>
+        <v>61.09380622549557</v>
       </c>
       <c r="F21" t="n">
-        <v>55.6725795419688</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G21" t="n">
-        <v>47.94688431179556</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H21" t="n">
-        <v>22.83881138508139</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.76120130122806</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S21" t="n">
-        <v>65.32866478038363</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T21" t="n">
-        <v>110.7680958434065</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U21" t="n">
-        <v>119.5868757575206</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V21" t="n">
-        <v>143.4039542980102</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W21" t="n">
-        <v>145.3404768374654</v>
+        <v>154.7117179928928</v>
       </c>
       <c r="X21" t="n">
-        <v>101.4398573978903</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y21" t="n">
-        <v>116.2860629258893</v>
+        <v>108.6994306092776</v>
       </c>
     </row>
     <row r="22">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.43534733052222</v>
+        <v>83.28070595203192</v>
       </c>
       <c r="C22" t="n">
-        <v>77.85018824721276</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D22" t="n">
-        <v>59.21884016679728</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E22" t="n">
-        <v>57.03732979515409</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F22" t="n">
-        <v>39.06654169947705</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G22" t="n">
-        <v>61.63647303500456</v>
+        <v>71.00771419043198</v>
       </c>
       <c r="H22" t="n">
-        <v>55.87266618398538</v>
+        <v>65.2439073394128</v>
       </c>
       <c r="I22" t="n">
-        <v>55.07989438692886</v>
+        <v>58.46720975923152</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>87.89675852575441</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S22" t="n">
-        <v>134.6199651855572</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T22" t="n">
-        <v>138.5489565768664</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U22" t="n">
-        <v>196.9223965050758</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V22" t="n">
-        <v>162.7410104724129</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W22" t="n">
-        <v>197.1263654851759</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X22" t="n">
-        <v>136.3130225376221</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y22" t="n">
-        <v>129.1880205006797</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>276.3793353400264</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C23" t="n">
-        <v>275.8762589195925</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D23" t="n">
-        <v>248.3285352972288</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E23" t="n">
-        <v>292.5337372208467</v>
+        <v>288.571189955589</v>
       </c>
       <c r="F23" t="n">
-        <v>317.4794128902964</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G23" t="n">
-        <v>325.90610466372</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H23" t="n">
-        <v>250.0781692643521</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I23" t="n">
-        <v>104.1213832469517</v>
+        <v>113.4926244023791</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>60.4724850897346</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S23" t="n">
-        <v>119.6234367348303</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T23" t="n">
-        <v>133.6992167127163</v>
+        <v>129.7366694474586</v>
       </c>
       <c r="U23" t="n">
-        <v>161.9490200564214</v>
+        <v>154.3623877398097</v>
       </c>
       <c r="V23" t="n">
-        <v>238.3556256187198</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W23" t="n">
-        <v>259.8443358659979</v>
+        <v>252.6896944875076</v>
       </c>
       <c r="X23" t="n">
-        <v>280.334467827054</v>
+        <v>272.7478355104423</v>
       </c>
       <c r="Y23" t="n">
-        <v>281.9048108504664</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="24">
@@ -24282,25 +24282,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>62.20005584428021</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C24" t="n">
-        <v>83.31186613690066</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D24" t="n">
-        <v>58.04843271322368</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E24" t="n">
-        <v>68.24844760398587</v>
+        <v>60.66181528737417</v>
       </c>
       <c r="F24" t="n">
-        <v>55.6725795419688</v>
+        <v>48.08594722535711</v>
       </c>
       <c r="G24" t="n">
-        <v>47.94688431179556</v>
+        <v>40.36025199518387</v>
       </c>
       <c r="H24" t="n">
-        <v>22.83881138508139</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.76120130122806</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S24" t="n">
-        <v>82.28653825242274</v>
+        <v>75.13189687393245</v>
       </c>
       <c r="T24" t="n">
-        <v>110.7680958434065</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U24" t="n">
-        <v>136.5447492295597</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V24" t="n">
-        <v>143.4039542980102</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W24" t="n">
-        <v>145.3404768374654</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X24" t="n">
-        <v>99.41847888002329</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y24" t="n">
-        <v>99.32818945385017</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.43534733052222</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C25" t="n">
-        <v>77.85018824721276</v>
+        <v>70.26355593060106</v>
       </c>
       <c r="D25" t="n">
-        <v>59.21884016679728</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E25" t="n">
-        <v>57.03732979515409</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F25" t="n">
-        <v>56.02441517151617</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G25" t="n">
-        <v>78.59434650704368</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H25" t="n">
-        <v>72.8305396560245</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I25" t="n">
-        <v>51.11734712167116</v>
+        <v>58.46720975923152</v>
       </c>
       <c r="J25" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>70.9388850537153</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S25" t="n">
-        <v>134.6199651855572</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T25" t="n">
-        <v>138.5489565768664</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U25" t="n">
-        <v>179.9645230330367</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V25" t="n">
-        <v>162.7410104724129</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W25" t="n">
-        <v>197.1263654851759</v>
+        <v>189.9717241066856</v>
       </c>
       <c r="X25" t="n">
-        <v>136.3130225376221</v>
+        <v>128.7263902210104</v>
       </c>
       <c r="Y25" t="n">
-        <v>112.2301470286406</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="26">
@@ -24443,22 +24443,22 @@
         <v>293.3372088120655</v>
       </c>
       <c r="C26" t="n">
-        <v>258.9183854475534</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D26" t="n">
-        <v>248.3285352972288</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E26" t="n">
-        <v>275.5758637488076</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F26" t="n">
-        <v>317.4794128902964</v>
+        <v>314.2873187770638</v>
       </c>
       <c r="G26" t="n">
-        <v>325.90610466372</v>
+        <v>322.282019612366</v>
       </c>
       <c r="H26" t="n">
-        <v>250.0781692643521</v>
+        <v>246.4540842129981</v>
       </c>
       <c r="I26" t="n">
         <v>121.0792567189908</v>
@@ -24488,10 +24488,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>45.53599013556256</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S26" t="n">
-        <v>119.6234367348303</v>
+        <v>115.9993516834763</v>
       </c>
       <c r="T26" t="n">
         <v>133.6992167127163</v>
@@ -24528,7 +24528,7 @@
         <v>58.04843271322368</v>
       </c>
       <c r="E27" t="n">
-        <v>68.24844760398587</v>
+        <v>65.05635349075327</v>
       </c>
       <c r="F27" t="n">
         <v>55.6725795419688</v>
@@ -24573,19 +24573,19 @@
         <v>82.28653825242274</v>
       </c>
       <c r="T27" t="n">
-        <v>95.83160088923448</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U27" t="n">
-        <v>119.5868757575206</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V27" t="n">
-        <v>126.4460808259711</v>
+        <v>139.7798692466562</v>
       </c>
       <c r="W27" t="n">
-        <v>145.3404768374654</v>
+        <v>158.6742652581505</v>
       </c>
       <c r="X27" t="n">
-        <v>116.3763523520624</v>
+        <v>112.7522673007084</v>
       </c>
       <c r="Y27" t="n">
         <v>116.2860629258893</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.49885237635017</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C28" t="n">
         <v>77.85018824721276</v>
@@ -24649,19 +24649,19 @@
         <v>87.89675852575441</v>
       </c>
       <c r="S28" t="n">
-        <v>134.6199651855572</v>
+        <v>130.9958801342032</v>
       </c>
       <c r="T28" t="n">
-        <v>121.5910831048273</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U28" t="n">
-        <v>179.9645230330367</v>
+        <v>193.7303023918432</v>
       </c>
       <c r="V28" t="n">
-        <v>145.7831370003738</v>
+        <v>159.1169254210589</v>
       </c>
       <c r="W28" t="n">
-        <v>197.1263654851759</v>
+        <v>193.5022804338219</v>
       </c>
       <c r="X28" t="n">
         <v>136.3130225376221</v>
@@ -24677,16 +24677,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>245.39032450027</v>
+        <v>245.3903245002699</v>
       </c>
       <c r="C29" t="n">
-        <v>225.518480431564</v>
+        <v>227.9293746077969</v>
       </c>
       <c r="D29" t="n">
-        <v>217.3395244574724</v>
+        <v>217.3395244574723</v>
       </c>
       <c r="E29" t="n">
-        <v>244.5868529090512</v>
+        <v>240.9627678576971</v>
       </c>
       <c r="F29" t="n">
         <v>269.5325285785008</v>
@@ -24698,7 +24698,7 @@
         <v>202.1312849525565</v>
       </c>
       <c r="I29" t="n">
-        <v>73.13237240719531</v>
+        <v>73.13237240719528</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,13 +24725,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>12.52560077793905</v>
       </c>
       <c r="S29" t="n">
-        <v>71.67655242303474</v>
+        <v>68.48445830980211</v>
       </c>
       <c r="T29" t="n">
-        <v>68.79445892888162</v>
+        <v>85.75233240092072</v>
       </c>
       <c r="U29" t="n">
         <v>114.0021357446259</v>
@@ -24740,13 +24740,13 @@
         <v>190.4087413069243</v>
       </c>
       <c r="W29" t="n">
-        <v>194.9395780821633</v>
+        <v>208.2733665028484</v>
       </c>
       <c r="X29" t="n">
-        <v>232.3875835152584</v>
+        <v>228.7634984639044</v>
       </c>
       <c r="Y29" t="n">
-        <v>231.9365480208039</v>
+        <v>248.894421492843</v>
       </c>
     </row>
     <row r="30">
@@ -24756,19 +24756,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29.18966648665673</v>
+        <v>29.18966648665671</v>
       </c>
       <c r="C30" t="n">
-        <v>35.36498182510513</v>
+        <v>35.3649818251051</v>
       </c>
       <c r="D30" t="n">
-        <v>10.10154840142815</v>
+        <v>10.10154840142812</v>
       </c>
       <c r="E30" t="n">
-        <v>20.30156329219034</v>
+        <v>20.30156329219031</v>
       </c>
       <c r="F30" t="n">
-        <v>7.725695230173272</v>
+        <v>7.725695230173244</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24807,25 +24807,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>34.33965394062722</v>
+        <v>34.33965394062719</v>
       </c>
       <c r="T30" t="n">
-        <v>62.821211531611</v>
+        <v>59.19712648025698</v>
       </c>
       <c r="U30" t="n">
-        <v>71.63999144572509</v>
+        <v>84.97377986641018</v>
       </c>
       <c r="V30" t="n">
-        <v>78.49919651417554</v>
+        <v>91.83298493486063</v>
       </c>
       <c r="W30" t="n">
         <v>114.351465997709</v>
       </c>
       <c r="X30" t="n">
-        <v>51.47159456822775</v>
+        <v>65.23737392703424</v>
       </c>
       <c r="Y30" t="n">
-        <v>53.40268365992171</v>
+        <v>68.33917861409373</v>
       </c>
     </row>
     <row r="31">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.48846301872669</v>
+        <v>42.48846301872666</v>
       </c>
       <c r="C31" t="n">
-        <v>29.90330393541723</v>
+        <v>29.9033039354172</v>
       </c>
       <c r="D31" t="n">
-        <v>11.27195585500175</v>
+        <v>11.27195585500172</v>
       </c>
       <c r="E31" t="n">
-        <v>9.090445483358565</v>
+        <v>9.090445483358536</v>
       </c>
       <c r="F31" t="n">
-        <v>8.077530859720639</v>
+        <v>8.077530859720611</v>
       </c>
       <c r="G31" t="n">
-        <v>15.71096724107611</v>
+        <v>30.64746219524812</v>
       </c>
       <c r="H31" t="n">
-        <v>24.88365534422897</v>
+        <v>24.88365534422894</v>
       </c>
       <c r="I31" t="n">
-        <v>18.10695776404768</v>
+        <v>18.10695776404765</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>22.99200074191976</v>
+        <v>39.94987421395885</v>
       </c>
       <c r="S31" t="n">
-        <v>69.71520740172252</v>
+        <v>83.48098676052902</v>
       </c>
       <c r="T31" t="n">
-        <v>90.60207226507089</v>
+        <v>90.60207226507086</v>
       </c>
       <c r="U31" t="n">
-        <v>148.9755121932803</v>
+        <v>145.3514271419263</v>
       </c>
       <c r="V31" t="n">
-        <v>97.83625268857827</v>
+        <v>111.1700411092634</v>
       </c>
       <c r="W31" t="n">
-        <v>149.1794811733804</v>
+        <v>145.5553961220264</v>
       </c>
       <c r="X31" t="n">
-        <v>88.36613822582655</v>
+        <v>88.36613822582652</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.24113618888418</v>
+        <v>81.24113618888416</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>228.4324510282308</v>
+        <v>245.3903245002699</v>
       </c>
       <c r="C32" t="n">
         <v>227.9293746077969</v>
       </c>
       <c r="D32" t="n">
-        <v>200.3816509854332</v>
+        <v>217.3395244574723</v>
       </c>
       <c r="E32" t="n">
-        <v>227.628979437012</v>
+        <v>244.5868529090511</v>
       </c>
       <c r="F32" t="n">
         <v>269.5325285785008</v>
       </c>
       <c r="G32" t="n">
-        <v>277.9592203519244</v>
+        <v>274.3351353005704</v>
       </c>
       <c r="H32" t="n">
-        <v>202.1312849525565</v>
+        <v>198.5071999012025</v>
       </c>
       <c r="I32" t="n">
-        <v>73.13237240719528</v>
+        <v>69.50828735584128</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>12.52560077793905</v>
+        <v>9.33350666470645</v>
       </c>
       <c r="S32" t="n">
         <v>71.67655242303471</v>
@@ -24983,7 +24983,7 @@
         <v>232.3875835152584</v>
       </c>
       <c r="Y32" t="n">
-        <v>233.9579265386709</v>
+        <v>248.894421492843</v>
       </c>
     </row>
     <row r="33">
@@ -24993,16 +24993,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>12.23179301461759</v>
+        <v>25.56558143530271</v>
       </c>
       <c r="C33" t="n">
-        <v>18.40710835306599</v>
+        <v>35.3649818251051</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>6.909454288195521</v>
       </c>
       <c r="E33" t="n">
-        <v>3.343689820151191</v>
+        <v>20.30156329219031</v>
       </c>
       <c r="F33" t="n">
         <v>7.725695230173244</v>
@@ -25047,10 +25047,10 @@
         <v>34.33965394062719</v>
       </c>
       <c r="T33" t="n">
-        <v>62.82121153161097</v>
+        <v>59.19712648025698</v>
       </c>
       <c r="U33" t="n">
-        <v>88.59786491776418</v>
+        <v>84.97377986641018</v>
       </c>
       <c r="V33" t="n">
         <v>95.45706998621463</v>
@@ -25062,7 +25062,7 @@
         <v>68.42946804026684</v>
       </c>
       <c r="Y33" t="n">
-        <v>63.5042320613498</v>
+        <v>68.33917861409373</v>
       </c>
     </row>
     <row r="34">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.48846301872666</v>
+        <v>39.29636890549406</v>
       </c>
       <c r="C34" t="n">
         <v>29.9033039354172</v>
@@ -25084,16 +25084,16 @@
         <v>9.090445483358536</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>8.077530859720611</v>
       </c>
       <c r="G34" t="n">
         <v>30.64746219524812</v>
       </c>
       <c r="H34" t="n">
-        <v>18.0246912497775</v>
+        <v>24.88365534422894</v>
       </c>
       <c r="I34" t="n">
-        <v>1.149084292008531</v>
+        <v>18.10695776404765</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>22.99200074191973</v>
+        <v>39.94987421395885</v>
       </c>
       <c r="S34" t="n">
         <v>86.67308087376162</v>
@@ -25132,13 +25132,13 @@
         <v>148.9755121932803</v>
       </c>
       <c r="V34" t="n">
-        <v>97.83625268857824</v>
+        <v>111.1700411092634</v>
       </c>
       <c r="W34" t="n">
-        <v>149.1794811733804</v>
+        <v>145.5553961220264</v>
       </c>
       <c r="X34" t="n">
-        <v>88.36613822582652</v>
+        <v>84.74205317447252</v>
       </c>
       <c r="Y34" t="n">
         <v>81.24113618888416</v>
@@ -25151,19 +25151,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>245.3903245002699</v>
+        <v>241.7662394489159</v>
       </c>
       <c r="C35" t="n">
         <v>227.9293746077969</v>
       </c>
       <c r="D35" t="n">
-        <v>200.3816509854332</v>
+        <v>217.3395244574723</v>
       </c>
       <c r="E35" t="n">
-        <v>227.628979437012</v>
+        <v>240.9627678576971</v>
       </c>
       <c r="F35" t="n">
-        <v>269.5325285785008</v>
+        <v>265.9084435271468</v>
       </c>
       <c r="G35" t="n">
         <v>277.9592203519244</v>
@@ -25211,7 +25211,7 @@
         <v>114.0021357446259</v>
       </c>
       <c r="V35" t="n">
-        <v>173.4508678348851</v>
+        <v>187.2166471936917</v>
       </c>
       <c r="W35" t="n">
         <v>211.8974515542024</v>
@@ -25220,7 +25220,7 @@
         <v>232.3875835152584</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.9579265386709</v>
+        <v>248.894421492843</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>12.23179301461759</v>
+        <v>25.56558143530271</v>
       </c>
       <c r="C36" t="n">
         <v>35.3649818251051</v>
@@ -25239,10 +25239,10 @@
         <v>10.10154840142812</v>
       </c>
       <c r="E36" t="n">
-        <v>3.343689820151191</v>
+        <v>20.30156329219031</v>
       </c>
       <c r="F36" t="n">
-        <v>7.725695230173244</v>
+        <v>4.533601116940646</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25284,16 +25284,16 @@
         <v>34.33965394062719</v>
       </c>
       <c r="T36" t="n">
-        <v>62.82121153161097</v>
+        <v>59.19712648025698</v>
       </c>
       <c r="U36" t="n">
-        <v>73.66136996359214</v>
+        <v>88.59786491776418</v>
       </c>
       <c r="V36" t="n">
         <v>95.45706998621463</v>
       </c>
       <c r="W36" t="n">
-        <v>97.39359252566985</v>
+        <v>110.727380946355</v>
       </c>
       <c r="X36" t="n">
         <v>68.42946804026684</v>
@@ -25312,13 +25312,13 @@
         <v>42.48846301872666</v>
       </c>
       <c r="C37" t="n">
-        <v>12.94543046337808</v>
+        <v>29.9033039354172</v>
       </c>
       <c r="D37" t="n">
         <v>11.27195585500172</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>9.090445483358536</v>
       </c>
       <c r="F37" t="n">
         <v>8.077530859720611</v>
@@ -25330,7 +25330,7 @@
         <v>24.88365534422894</v>
       </c>
       <c r="I37" t="n">
-        <v>12.26090829323414</v>
+        <v>18.10695776404765</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,22 +25360,22 @@
         <v>39.94987421395885</v>
       </c>
       <c r="S37" t="n">
-        <v>69.71520740172249</v>
+        <v>86.67308087376162</v>
       </c>
       <c r="T37" t="n">
-        <v>90.60207226507086</v>
+        <v>87.40997815183826</v>
       </c>
       <c r="U37" t="n">
-        <v>148.9755121932803</v>
+        <v>145.3514271419263</v>
       </c>
       <c r="V37" t="n">
-        <v>114.7941261606174</v>
+        <v>111.1700411092634</v>
       </c>
       <c r="W37" t="n">
-        <v>149.1794811733804</v>
+        <v>145.5553961220264</v>
       </c>
       <c r="X37" t="n">
-        <v>71.40826475378739</v>
+        <v>88.36613822582652</v>
       </c>
       <c r="Y37" t="n">
         <v>81.24113618888416</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>228.4324510282308</v>
+        <v>245.3903245002699</v>
       </c>
       <c r="C38" t="n">
         <v>227.9293746077969</v>
@@ -25397,19 +25397,19 @@
         <v>217.3395244574723</v>
       </c>
       <c r="E38" t="n">
-        <v>244.5868529090511</v>
+        <v>240.9627678576971</v>
       </c>
       <c r="F38" t="n">
-        <v>252.5746551064616</v>
+        <v>265.9084435271468</v>
       </c>
       <c r="G38" t="n">
-        <v>277.9592203519244</v>
+        <v>274.3351353005704</v>
       </c>
       <c r="H38" t="n">
-        <v>187.1947899983845</v>
+        <v>198.9391908393239</v>
       </c>
       <c r="I38" t="n">
-        <v>56.17449893515616</v>
+        <v>73.13237240719528</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25467,19 +25467,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>12.23179301461759</v>
+        <v>29.18966648665671</v>
       </c>
       <c r="C39" t="n">
-        <v>35.3649818251051</v>
+        <v>31.74089677375111</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>6.477463350074124</v>
       </c>
       <c r="E39" t="n">
         <v>20.30156329219031</v>
       </c>
       <c r="F39" t="n">
-        <v>7.725695230173244</v>
+        <v>4.533601116940646</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25524,16 +25524,16 @@
         <v>62.82121153161097</v>
       </c>
       <c r="U39" t="n">
-        <v>83.76291836502025</v>
+        <v>84.97377986641018</v>
       </c>
       <c r="V39" t="n">
         <v>95.45706998621463</v>
       </c>
       <c r="W39" t="n">
-        <v>97.39359252566985</v>
+        <v>114.351465997709</v>
       </c>
       <c r="X39" t="n">
-        <v>51.47159456822772</v>
+        <v>68.42946804026684</v>
       </c>
       <c r="Y39" t="n">
         <v>68.33917861409373</v>
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>42.48846301872666</v>
+        <v>38.86437796737267</v>
       </c>
       <c r="C40" t="n">
-        <v>12.94543046337808</v>
+        <v>29.9033039354172</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>11.27195585500172</v>
       </c>
       <c r="E40" t="n">
-        <v>5.425906384188212</v>
+        <v>9.090445483358536</v>
       </c>
       <c r="F40" t="n">
         <v>8.077530859720611</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>22.99200074191973</v>
+        <v>36.32578916260486</v>
       </c>
       <c r="S40" t="n">
-        <v>86.67308087376162</v>
+        <v>83.48098676052902</v>
       </c>
       <c r="T40" t="n">
         <v>90.60207226507086</v>
@@ -25612,7 +25612,7 @@
         <v>149.1794811733804</v>
       </c>
       <c r="X40" t="n">
-        <v>71.40826475378739</v>
+        <v>84.74205317447252</v>
       </c>
       <c r="Y40" t="n">
         <v>81.24113618888416</v>
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>267.6598163261528</v>
+        <v>263.6972690608951</v>
       </c>
       <c r="C41" t="n">
-        <v>250.1988664336798</v>
+        <v>246.2363191684221</v>
       </c>
       <c r="D41" t="n">
-        <v>239.6090162833552</v>
+        <v>235.6464690180975</v>
       </c>
       <c r="E41" t="n">
-        <v>249.8984712628949</v>
+        <v>262.8937974696763</v>
       </c>
       <c r="F41" t="n">
-        <v>274.8441469323445</v>
+        <v>284.215388087772</v>
       </c>
       <c r="G41" t="n">
-        <v>300.2287121778073</v>
+        <v>296.2661649125496</v>
       </c>
       <c r="H41" t="n">
-        <v>224.4007767784394</v>
+        <v>220.4382295131817</v>
       </c>
       <c r="I41" t="n">
-        <v>95.40186423307813</v>
+        <v>91.43931696782043</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>34.7950926038219</v>
+        <v>27.64045122533161</v>
       </c>
       <c r="S41" t="n">
-        <v>93.94604424891756</v>
+        <v>89.98349698365986</v>
       </c>
       <c r="T41" t="n">
-        <v>93.08532927263153</v>
+        <v>100.4351919101919</v>
       </c>
       <c r="U41" t="n">
-        <v>136.2716275705087</v>
+        <v>132.309080305251</v>
       </c>
       <c r="V41" t="n">
-        <v>212.6782331328071</v>
+        <v>208.7156858675494</v>
       </c>
       <c r="W41" t="n">
-        <v>234.1669433800852</v>
+        <v>226.5803110634735</v>
       </c>
       <c r="X41" t="n">
-        <v>254.6570753411413</v>
+        <v>250.6945280758836</v>
       </c>
       <c r="Y41" t="n">
-        <v>254.2060398466867</v>
+        <v>267.2013660534681</v>
       </c>
     </row>
     <row r="42">
@@ -25704,22 +25704,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36.52266335836751</v>
+        <v>47.49661104728186</v>
       </c>
       <c r="C42" t="n">
-        <v>40.67660017894884</v>
+        <v>53.67192638573026</v>
       </c>
       <c r="D42" t="n">
-        <v>15.41316675527185</v>
+        <v>28.40849296205327</v>
       </c>
       <c r="E42" t="n">
-        <v>42.57105511807316</v>
+        <v>38.60850785281546</v>
       </c>
       <c r="F42" t="n">
-        <v>29.9951870560561</v>
+        <v>26.0326397907984</v>
       </c>
       <c r="G42" t="n">
-        <v>22.26949182588285</v>
+        <v>15.11485044739256</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25755,25 +25755,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>39.65127229447092</v>
+        <v>49.02251344989835</v>
       </c>
       <c r="T42" t="n">
-        <v>85.09070335749382</v>
+        <v>81.12815609223613</v>
       </c>
       <c r="U42" t="n">
-        <v>110.867356743647</v>
+        <v>103.2807244270353</v>
       </c>
       <c r="V42" t="n">
-        <v>117.7265618120975</v>
+        <v>110.1399294954858</v>
       </c>
       <c r="W42" t="n">
-        <v>136.6209578235918</v>
+        <v>132.6584105583341</v>
       </c>
       <c r="X42" t="n">
-        <v>90.69895986614969</v>
+        <v>86.736412600892</v>
       </c>
       <c r="Y42" t="n">
-        <v>90.60867043997658</v>
+        <v>86.64612317471888</v>
       </c>
     </row>
     <row r="43">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64.75795484460951</v>
+        <v>60.79540757935182</v>
       </c>
       <c r="C43" t="n">
-        <v>52.17279576130005</v>
+        <v>44.58616344468836</v>
       </c>
       <c r="D43" t="n">
-        <v>33.54144768088457</v>
+        <v>29.57890041562688</v>
       </c>
       <c r="E43" t="n">
-        <v>31.35993730924139</v>
+        <v>27.39739004398369</v>
       </c>
       <c r="F43" t="n">
-        <v>30.34702268560346</v>
+        <v>23.19238130711317</v>
       </c>
       <c r="G43" t="n">
-        <v>52.91695402113098</v>
+        <v>48.95440675587328</v>
       </c>
       <c r="H43" t="n">
-        <v>32.21665221593975</v>
+        <v>43.1905999048541</v>
       </c>
       <c r="I43" t="n">
-        <v>23.41857611789138</v>
+        <v>36.4139023246728</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>62.2193660398417</v>
+        <v>54.63273372323001</v>
       </c>
       <c r="S43" t="n">
-        <v>91.98469922760535</v>
+        <v>104.9800254343868</v>
       </c>
       <c r="T43" t="n">
-        <v>112.8715640909537</v>
+        <v>108.909016825696</v>
       </c>
       <c r="U43" t="n">
-        <v>171.2450040191631</v>
+        <v>167.2824567539054</v>
       </c>
       <c r="V43" t="n">
-        <v>137.0636179865002</v>
+        <v>133.1010707212425</v>
       </c>
       <c r="W43" t="n">
-        <v>171.4489729992632</v>
+        <v>167.4864257340055</v>
       </c>
       <c r="X43" t="n">
-        <v>110.6356300517094</v>
+        <v>106.6730827864517</v>
       </c>
       <c r="Y43" t="n">
-        <v>86.55275454272788</v>
+        <v>95.92399569815531</v>
       </c>
     </row>
     <row r="44">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>451856.6971907064</v>
+        <v>459203.5768242755</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>451856.6971907064</v>
+        <v>459203.5768242755</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>464445.0005576318</v>
+        <v>461893.8364331354</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>464445.0005576317</v>
+        <v>461893.8364331354</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>464445.0005576318</v>
+        <v>454546.9567995664</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>550384.8563497597</v>
+        <v>540486.8125916943</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>550384.8563497599</v>
+        <v>540486.8125916944</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>550384.8563497597</v>
+        <v>540486.8125916943</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>550384.8563497597</v>
+        <v>540486.8125916944</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>511033.7735137516</v>
+        <v>508137.7092752873</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778312.5217811862</v>
+        <v>778312.5217811865</v>
       </c>
       <c r="C2" t="n">
-        <v>778312.5217811866</v>
+        <v>778312.5217811863</v>
       </c>
       <c r="D2" t="n">
-        <v>778312.5217811865</v>
+        <v>778312.5217811863</v>
       </c>
       <c r="E2" t="n">
-        <v>256958.9834936195</v>
+        <v>256958.9834936197</v>
       </c>
       <c r="F2" t="n">
-        <v>408914.7838453713</v>
+        <v>417639.2034102343</v>
       </c>
       <c r="G2" t="n">
-        <v>408914.7838453712</v>
+        <v>417639.203410234</v>
       </c>
       <c r="H2" t="n">
-        <v>418042.6468472298</v>
+        <v>419589.9286536078</v>
       </c>
       <c r="I2" t="n">
-        <v>418042.6468472298</v>
+        <v>419589.9286536078</v>
       </c>
       <c r="J2" t="n">
-        <v>418042.6468472298</v>
+        <v>410865.5090887444</v>
       </c>
       <c r="K2" t="n">
-        <v>520096.2256003822</v>
+        <v>512919.0878418967</v>
       </c>
       <c r="L2" t="n">
-        <v>520096.2256003822</v>
+        <v>512919.0878418969</v>
       </c>
       <c r="M2" t="n">
-        <v>520096.2256003822</v>
+        <v>512919.0878418967</v>
       </c>
       <c r="N2" t="n">
-        <v>520096.2256003821</v>
+        <v>512919.0878418967</v>
       </c>
       <c r="O2" t="n">
-        <v>473366.8147326227</v>
+        <v>474504.5276536627</v>
       </c>
       <c r="P2" t="n">
-        <v>204264.0705097482</v>
+        <v>204264.0705097481</v>
       </c>
     </row>
     <row r="3">
@@ -26375,25 +26375,25 @@
         <v>17815.59346070628</v>
       </c>
       <c r="F3" t="n">
-        <v>53701.71282042578</v>
+        <v>56871.75063263194</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4575.386883617403</v>
+        <v>977.8107636207701</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>17815.59346070628</v>
+        <v>14645.55564850012</v>
       </c>
       <c r="K3" t="n">
-        <v>92059.22026986223</v>
+        <v>95229.25808206838</v>
       </c>
       <c r="L3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="C4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>138639.556508057</v>
+        <v>139166.9017221033</v>
       </c>
       <c r="F4" t="n">
-        <v>229935.7331211011</v>
+        <v>235704.7745889019</v>
       </c>
       <c r="G4" t="n">
-        <v>229935.733121101</v>
+        <v>235704.7745889019</v>
       </c>
       <c r="H4" t="n">
-        <v>234828.0763335233</v>
+        <v>236755.4608341851</v>
       </c>
       <c r="I4" t="n">
-        <v>234828.0763335233</v>
+        <v>236755.4608341851</v>
       </c>
       <c r="J4" t="n">
-        <v>234828.0763335233</v>
+        <v>231513.7645804306</v>
       </c>
       <c r="K4" t="n">
-        <v>296142.6265400533</v>
+        <v>292828.3147869606</v>
       </c>
       <c r="L4" t="n">
-        <v>296142.6265400533</v>
+        <v>292828.3147869606</v>
       </c>
       <c r="M4" t="n">
-        <v>296142.6265400533</v>
+        <v>292828.3147869606</v>
       </c>
       <c r="N4" t="n">
-        <v>296142.6265400533</v>
+        <v>292828.3147869606</v>
       </c>
       <c r="O4" t="n">
-        <v>268067.2484516164</v>
+        <v>269748.5609155123</v>
       </c>
       <c r="P4" t="n">
-        <v>106980.0603174001</v>
+        <v>107507.4055314464</v>
       </c>
     </row>
     <row r="5">
@@ -26479,34 +26479,34 @@
         <v>1872.173908310146</v>
       </c>
       <c r="F5" t="n">
-        <v>7515.485527185614</v>
+        <v>7848.612913228564</v>
       </c>
       <c r="G5" t="n">
-        <v>7515.485527185614</v>
+        <v>7848.612913228564</v>
       </c>
       <c r="H5" t="n">
-        <v>8546.524234285593</v>
+        <v>8068.957284350887</v>
       </c>
       <c r="I5" t="n">
-        <v>8546.524234285593</v>
+        <v>8068.957284350887</v>
       </c>
       <c r="J5" t="n">
-        <v>8546.524234285593</v>
+        <v>7735.829898307937</v>
       </c>
       <c r="K5" t="n">
-        <v>12577.37085149393</v>
+        <v>11766.67651551628</v>
       </c>
       <c r="L5" t="n">
-        <v>12577.37085149393</v>
+        <v>11766.67651551628</v>
       </c>
       <c r="M5" t="n">
-        <v>12577.37085149393</v>
+        <v>11766.67651551628</v>
       </c>
       <c r="N5" t="n">
-        <v>12577.37085149393</v>
+        <v>11766.67651551628</v>
       </c>
       <c r="O5" t="n">
-        <v>10705.19694318379</v>
+        <v>10227.62999324908</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>292812.2764462674</v>
+        <v>292284.9312322213</v>
       </c>
       <c r="C6" t="n">
-        <v>292812.2764462678</v>
+        <v>292284.9312322212</v>
       </c>
       <c r="D6" t="n">
-        <v>292812.2764462677</v>
+        <v>292284.9312322212</v>
       </c>
       <c r="E6" t="n">
-        <v>98631.65961654611</v>
+        <v>98104.31440249995</v>
       </c>
       <c r="F6" t="n">
-        <v>117761.8523766588</v>
+        <v>117214.0652754719</v>
       </c>
       <c r="G6" t="n">
-        <v>171463.5651970846</v>
+        <v>174085.8159081035</v>
       </c>
       <c r="H6" t="n">
-        <v>170092.6593958036</v>
+        <v>173787.6997714511</v>
       </c>
       <c r="I6" t="n">
-        <v>174668.046279421</v>
+        <v>174765.5105350718</v>
       </c>
       <c r="J6" t="n">
-        <v>156852.4528187147</v>
+        <v>156970.3589615058</v>
       </c>
       <c r="K6" t="n">
-        <v>119317.0079389728</v>
+        <v>113094.8384573515</v>
       </c>
       <c r="L6" t="n">
-        <v>211376.228208835</v>
+        <v>208324.09653942</v>
       </c>
       <c r="M6" t="n">
-        <v>211376.228208835</v>
+        <v>208324.0965394199</v>
       </c>
       <c r="N6" t="n">
-        <v>211376.2282088349</v>
+        <v>208324.0965394198</v>
       </c>
       <c r="O6" t="n">
-        <v>194594.3693378225</v>
+        <v>194528.3367449013</v>
       </c>
       <c r="P6" t="n">
-        <v>97284.0101923481</v>
+        <v>96756.66497830172</v>
       </c>
     </row>
   </sheetData>
@@ -26695,16 +26695,16 @@
         <v>22.26949182588285</v>
       </c>
       <c r="F2" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G2" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H2" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I2" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J2" t="n">
         <v>89.39663285141508</v>
@@ -26722,7 +26722,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="O2" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26805,28 +26805,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="I4" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="J4" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="K4" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="L4" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M4" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N4" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O4" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26917,7 +26917,7 @@
         <v>22.26949182588285</v>
       </c>
       <c r="F2" t="n">
-        <v>67.12714102553223</v>
+        <v>71.08968829078992</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.26949182588285</v>
+        <v>18.30694456062515</v>
       </c>
       <c r="K2" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>22.26949182588285</v>
       </c>
       <c r="K2" t="n">
-        <v>67.12714102553223</v>
+        <v>71.08968829078992</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>22.26949182588285</v>
+        <v>18.30694456062515</v>
       </c>
       <c r="P2" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
     </row>
     <row r="3">
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
     </row>
   </sheetData>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="15">
@@ -28403,25 +28403,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -28530,28 +28530,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="18">
@@ -28640,25 +28640,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="19">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
         <v>22.26949182588285</v>
@@ -28767,28 +28767,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="21">
@@ -28877,25 +28877,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="22">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
         <v>22.26949182588285</v>
@@ -29004,28 +29004,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="24">
@@ -29114,25 +29114,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="25">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -29241,28 +29241,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="26">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="C41" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="D41" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="E41" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="F41" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="G41" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="H41" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="I41" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="S41" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="T41" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="U41" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="V41" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="W41" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="X41" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="Y41" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
     </row>
     <row r="42">
@@ -30536,22 +30536,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="C42" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="D42" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="E42" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="F42" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="G42" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -30587,25 +30587,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="T42" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="U42" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="V42" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="W42" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="X42" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="Y42" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
     </row>
     <row r="43">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="C43" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="D43" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="E43" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="F43" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="G43" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="H43" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="I43" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -30663,28 +30663,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="S43" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="T43" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="U43" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="V43" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="W43" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="X43" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.0740253373278</v>
+        <v>119.0365726025855</v>
       </c>
     </row>
     <row r="44">
@@ -36121,22 +36121,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="L20" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M20" t="n">
-        <v>16.27270686710825</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N21" t="n">
-        <v>16.27270686710825</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O21" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>16.95787347203912</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,16 +36282,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>16.95787347203912</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="M22" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N22" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O22" t="n">
-        <v>16.27270686710825</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>16.27270686710825</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N23" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>16.95787347203912</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M24" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N24" t="n">
-        <v>16.95787347203912</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="O24" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>16.27270686710825</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36519,16 +36519,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>16.95787347203912</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="M25" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N25" t="n">
-        <v>16.27270686710825</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O25" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36595,22 +36595,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>16.95787347203912</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="L26" t="n">
-        <v>16.27270686710825</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O26" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>16.95787347203912</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="L27" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M27" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N27" t="n">
-        <v>16.27270686710825</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36756,16 +36756,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>16.95787347203912</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="M28" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N28" t="n">
-        <v>16.27270686710825</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O28" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36838,16 +36838,16 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>16.27270686710825</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N29" t="n">
-        <v>16.95787347203912</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="O29" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P29" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>16.27270686710825</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,16 +36993,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>16.95787347203912</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="M31" t="n">
-        <v>16.27270686710825</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N31" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O31" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37069,22 +37069,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N32" t="n">
-        <v>16.27270686710825</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="O32" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P32" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="N33" t="n">
-        <v>16.27270686710825</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O33" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P33" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Q33" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>16.95787347203912</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="M34" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N34" t="n">
-        <v>16.27270686710825</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O34" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37306,16 +37306,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="L35" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M35" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N35" t="n">
-        <v>16.27270686710825</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>16.27270686710825</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O36" t="n">
-        <v>16.95787347203912</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,16 +37467,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M37" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N37" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O37" t="n">
-        <v>16.27270686710825</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37543,19 +37543,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="L38" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M38" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N38" t="n">
-        <v>16.95787347203912</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="O38" t="n">
-        <v>16.27270686710825</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37628,19 +37628,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>16.27270686710825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O39" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P39" t="n">
-        <v>16.95787347203912</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,16 +37704,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>16.27270686710825</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M40" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N40" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O40" t="n">
-        <v>16.95787347203912</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37786,16 +37786,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>16.27270686710825</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="N41" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O41" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P41" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="L42" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M42" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N42" t="n">
-        <v>16.27270686710825</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>16.95787347203912</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>16.27270686710825</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="M43" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N43" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O43" t="n">
-        <v>16.95787347203912</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1675121.427131692</v>
+        <v>1621008.95050193</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11746303.32766474</v>
+        <v>11746303.32766475</v>
       </c>
     </row>
     <row r="9">
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,11 +2365,11 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="S23" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>27.59002526031614</v>
@@ -2459,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
+        <v>12.22368416543312</v>
+      </c>
+      <c r="X24" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="X24" t="n">
-        <v>12.22368416543312</v>
-      </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="25">
@@ -2475,67 +2475,67 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="I25" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="V25" t="n">
         <v>24.30129424928645</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="S25" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="T25" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>24.30129424928645</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,17 +2633,17 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>18.29130682329314</v>
+      </c>
+      <c r="E27" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>13.54009294805839</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>20.33874698402875</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>20.33874698402875</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2800,46 +2800,46 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="F29" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>24.30129424928645</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y29" t="n">
         <v>27.59002526031614</v>
@@ -2876,16 +2876,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>13.54009294805839</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>10.76120130122806</v>
       </c>
       <c r="S30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>13.54009294805839</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>20.33874698402875</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2970,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="32">
@@ -3028,64 +3028,64 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="C32" t="n">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D32" t="n">
+      <c r="U32" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="E32" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>16.02390119745102</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3122,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H33" t="n">
-        <v>8.277393051835432</v>
+        <v>8.277393051835389</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>16.02390119745106</v>
       </c>
       <c r="X33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>27.59002526031614</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="S34" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>27.59002526031614</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3274,58 +3274,58 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="F35" t="n">
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="G35" t="n">
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H35" t="n">
+      <c r="V35" t="n">
         <v>24.30129424928645</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3395,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W36" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="X36" t="n">
         <v>24.30129424928645</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3432,67 +3432,67 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="F37" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H37" t="n">
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="I37" t="n">
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,43 +3520,43 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I38" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="T38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="U39" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>24.30129424928645</v>
       </c>
     </row>
     <row r="40">
@@ -3663,61 +3663,61 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>24.30129424928645</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,67 +3748,67 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="F41" t="n">
+      <c r="S41" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="T41" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="I41" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3827,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G42" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I42" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="V43" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>27.59002526031614</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4055,55 +4055,55 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
         <v>24.30129424928645</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4115,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="T46" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>57.94462678914073</v>
       </c>
       <c r="F23" t="n">
-        <v>30.07591440498301</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="G23" t="n">
         <v>30.07591440498301</v>
@@ -6013,25 +6013,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R23" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S23" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T23" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U23" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V23" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W23" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X23" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y23" t="n">
         <v>57.94462678914073</v>
@@ -6080,13 +6080,13 @@
         <v>56.83545203625125</v>
       </c>
       <c r="N24" t="n">
-        <v>56.83545203625125</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O24" t="n">
-        <v>56.83545203625125</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P24" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q24" t="n">
         <v>110.3601010412646</v>
@@ -6107,13 +6107,13 @@
         <v>110.3601010412646</v>
       </c>
       <c r="W24" t="n">
-        <v>82.49138865710684</v>
+        <v>98.01294531860484</v>
       </c>
       <c r="X24" t="n">
         <v>70.14423293444712</v>
       </c>
       <c r="Y24" t="n">
-        <v>70.14423293444712</v>
+        <v>42.2755205502894</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C25" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D25" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E25" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F25" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="G25" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="H25" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I25" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="J25" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K25" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L25" t="n">
-        <v>31.39257439093933</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M25" t="n">
-        <v>58.7066993986523</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N25" t="n">
-        <v>86.02082440636528</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O25" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P25" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q25" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="R25" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="S25" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="T25" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="U25" t="n">
         <v>82.49138865710684</v>
       </c>
-      <c r="S25" t="n">
-        <v>54.62267627294912</v>
-      </c>
-      <c r="T25" t="n">
-        <v>26.7539638887914</v>
-      </c>
-      <c r="U25" t="n">
-        <v>26.7539638887914</v>
-      </c>
       <c r="V25" t="n">
-        <v>26.7539638887914</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W25" t="n">
-        <v>26.7539638887914</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X25" t="n">
-        <v>26.7539638887914</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y25" t="n">
-        <v>26.7539638887914</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="26">
@@ -6211,16 +6211,16 @@
         <v>82.49138865710684</v>
       </c>
       <c r="E26" t="n">
-        <v>54.62267627294912</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="F26" t="n">
-        <v>26.7539638887914</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="G26" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="H26" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I26" t="n">
         <v>2.207202020825291</v>
@@ -6232,16 +6232,16 @@
         <v>29.52132702853827</v>
       </c>
       <c r="L26" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M26" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N26" t="n">
-        <v>55.73185102583861</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O26" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P26" t="n">
         <v>110.3601010412646</v>
@@ -6250,22 +6250,22 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R26" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S26" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T26" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U26" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V26" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W26" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X26" t="n">
         <v>82.49138865710684</v>
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>30.07591440498301</v>
+        <v>71.62148835283607</v>
       </c>
       <c r="C27" t="n">
-        <v>2.207202020825291</v>
+        <v>71.62148835283607</v>
       </c>
       <c r="D27" t="n">
-        <v>2.207202020825291</v>
+        <v>53.14542085456017</v>
       </c>
       <c r="E27" t="n">
-        <v>2.207202020825291</v>
+        <v>25.27670847040245</v>
       </c>
       <c r="F27" t="n">
-        <v>2.207202020825291</v>
+        <v>25.27670847040245</v>
       </c>
       <c r="G27" t="n">
-        <v>2.207202020825291</v>
+        <v>25.27670847040245</v>
       </c>
       <c r="H27" t="n">
         <v>2.207202020825291</v>
@@ -6308,22 +6308,22 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K27" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L27" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M27" t="n">
-        <v>55.73185102583861</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N27" t="n">
-        <v>55.73185102583861</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O27" t="n">
-        <v>55.73185102583861</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P27" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q27" t="n">
         <v>110.3601010412646</v>
@@ -6338,19 +6338,19 @@
         <v>99.49020073699378</v>
       </c>
       <c r="U27" t="n">
-        <v>85.81333917329844</v>
+        <v>99.49020073699378</v>
       </c>
       <c r="V27" t="n">
-        <v>85.81333917329844</v>
+        <v>99.49020073699378</v>
       </c>
       <c r="W27" t="n">
-        <v>57.94462678914073</v>
+        <v>99.49020073699378</v>
       </c>
       <c r="X27" t="n">
-        <v>57.94462678914073</v>
+        <v>99.49020073699378</v>
       </c>
       <c r="Y27" t="n">
-        <v>30.07591440498301</v>
+        <v>99.49020073699378</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>61.94719978435052</v>
+      </c>
+      <c r="C28" t="n">
+        <v>61.94719978435052</v>
+      </c>
+      <c r="D28" t="n">
+        <v>61.94719978435052</v>
+      </c>
+      <c r="E28" t="n">
+        <v>61.94719978435052</v>
+      </c>
+      <c r="F28" t="n">
+        <v>61.94719978435052</v>
+      </c>
+      <c r="G28" t="n">
         <v>34.07848740019281</v>
-      </c>
-      <c r="C28" t="n">
-        <v>34.07848740019281</v>
-      </c>
-      <c r="D28" t="n">
-        <v>34.07848740019281</v>
-      </c>
-      <c r="E28" t="n">
-        <v>34.07848740019281</v>
-      </c>
-      <c r="F28" t="n">
-        <v>34.07848740019281</v>
-      </c>
-      <c r="G28" t="n">
-        <v>6.209775016035087</v>
       </c>
       <c r="H28" t="n">
         <v>6.209775016035087</v>
@@ -6408,25 +6408,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R28" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S28" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T28" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U28" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V28" t="n">
-        <v>110.3601010412646</v>
+        <v>61.94719978435052</v>
       </c>
       <c r="W28" t="n">
-        <v>110.3601010412646</v>
+        <v>61.94719978435052</v>
       </c>
       <c r="X28" t="n">
-        <v>89.81591216850825</v>
+        <v>61.94719978435052</v>
       </c>
       <c r="Y28" t="n">
         <v>61.94719978435052</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C29" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D29" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E29" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F29" t="n">
         <v>2.207202020825291</v>
@@ -6472,10 +6472,10 @@
         <v>56.83545203625125</v>
       </c>
       <c r="M29" t="n">
-        <v>84.14957704396423</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N29" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O29" t="n">
         <v>110.3601010412646</v>
@@ -6487,28 +6487,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R29" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S29" t="n">
-        <v>85.81333917329844</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T29" t="n">
-        <v>85.81333917329844</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U29" t="n">
-        <v>85.81333917329844</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V29" t="n">
-        <v>85.81333917329844</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W29" t="n">
-        <v>85.81333917329844</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X29" t="n">
-        <v>85.81333917329844</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y29" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.207202020825291</v>
+        <v>99.49020073699378</v>
       </c>
       <c r="C30" t="n">
-        <v>2.207202020825291</v>
+        <v>99.49020073699378</v>
       </c>
       <c r="D30" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="E30" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F30" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G30" t="n">
         <v>2.207202020825291</v>
@@ -6545,19 +6545,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K30" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L30" t="n">
-        <v>29.52132702853827</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M30" t="n">
-        <v>55.73185102583861</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N30" t="n">
-        <v>55.73185102583861</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O30" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P30" t="n">
         <v>110.3601010412646</v>
@@ -6569,25 +6569,25 @@
         <v>99.49020073699378</v>
       </c>
       <c r="S30" t="n">
-        <v>71.62148835283607</v>
+        <v>99.49020073699378</v>
       </c>
       <c r="T30" t="n">
-        <v>57.94462678914073</v>
+        <v>99.49020073699378</v>
       </c>
       <c r="U30" t="n">
-        <v>57.94462678914073</v>
+        <v>99.49020073699378</v>
       </c>
       <c r="V30" t="n">
-        <v>30.07591440498301</v>
+        <v>99.49020073699378</v>
       </c>
       <c r="W30" t="n">
-        <v>2.207202020825291</v>
+        <v>99.49020073699378</v>
       </c>
       <c r="X30" t="n">
-        <v>2.207202020825291</v>
+        <v>99.49020073699378</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.207202020825291</v>
+        <v>99.49020073699378</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.207202020825291</v>
+        <v>34.07848740019281</v>
       </c>
       <c r="C31" t="n">
-        <v>2.207202020825291</v>
+        <v>34.07848740019281</v>
       </c>
       <c r="D31" t="n">
-        <v>2.207202020825291</v>
+        <v>34.07848740019281</v>
       </c>
       <c r="E31" t="n">
-        <v>2.207202020825291</v>
+        <v>34.07848740019281</v>
       </c>
       <c r="F31" t="n">
-        <v>2.207202020825291</v>
+        <v>34.07848740019281</v>
       </c>
       <c r="G31" t="n">
-        <v>2.207202020825291</v>
+        <v>34.07848740019281</v>
       </c>
       <c r="H31" t="n">
-        <v>2.207202020825291</v>
+        <v>34.07848740019281</v>
       </c>
       <c r="I31" t="n">
-        <v>2.207202020825291</v>
+        <v>6.209775016035087</v>
       </c>
       <c r="J31" t="n">
         <v>2.207202020825291</v>
@@ -6639,7 +6639,7 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P31" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q31" t="n">
         <v>110.3601010412646</v>
@@ -6654,19 +6654,19 @@
         <v>110.3601010412646</v>
       </c>
       <c r="U31" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V31" t="n">
-        <v>57.94462678914073</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W31" t="n">
-        <v>30.07591440498301</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X31" t="n">
-        <v>2.207202020825291</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82.49138865710684</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C32" t="n">
-        <v>54.62267627294912</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D32" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E32" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F32" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G32" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H32" t="n">
         <v>2.207202020825291</v>
@@ -6703,16 +6703,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K32" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L32" t="n">
-        <v>28.41772601812563</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M32" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N32" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O32" t="n">
         <v>110.3601010412646</v>
@@ -6724,28 +6724,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R32" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S32" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T32" t="n">
-        <v>110.3601010412646</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U32" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V32" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W32" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X32" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y32" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>26.7539638887914</v>
+        <v>38.43691748764502</v>
       </c>
       <c r="C33" t="n">
-        <v>10.56820510348734</v>
+        <v>38.43691748764502</v>
       </c>
       <c r="D33" t="n">
-        <v>10.56820510348734</v>
+        <v>38.43691748764502</v>
       </c>
       <c r="E33" t="n">
-        <v>10.56820510348734</v>
+        <v>38.43691748764502</v>
       </c>
       <c r="F33" t="n">
-        <v>10.56820510348734</v>
+        <v>38.43691748764502</v>
       </c>
       <c r="G33" t="n">
-        <v>10.56820510348734</v>
+        <v>10.5682051034873</v>
       </c>
       <c r="H33" t="n">
         <v>2.207202020825291</v>
@@ -6782,19 +6782,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K33" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L33" t="n">
-        <v>29.52132702853827</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M33" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N33" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O33" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P33" t="n">
         <v>110.3601010412646</v>
@@ -6809,22 +6809,22 @@
         <v>110.3601010412646</v>
       </c>
       <c r="T33" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="U33" t="n">
         <v>82.49138865710684</v>
-      </c>
-      <c r="U33" t="n">
-        <v>54.62267627294912</v>
       </c>
       <c r="V33" t="n">
         <v>54.62267627294912</v>
       </c>
       <c r="W33" t="n">
-        <v>54.62267627294912</v>
+        <v>38.43691748764502</v>
       </c>
       <c r="X33" t="n">
-        <v>26.7539638887914</v>
+        <v>38.43691748764502</v>
       </c>
       <c r="Y33" t="n">
-        <v>26.7539638887914</v>
+        <v>38.43691748764502</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C34" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D34" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E34" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F34" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="G34" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="H34" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I34" t="n">
         <v>2.207202020825291</v>
@@ -6861,19 +6861,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K34" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L34" t="n">
-        <v>29.52132702853827</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M34" t="n">
-        <v>56.83545203625125</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N34" t="n">
-        <v>84.14957704396423</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O34" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P34" t="n">
         <v>110.3601010412646</v>
@@ -6882,28 +6882,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R34" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S34" t="n">
-        <v>54.62267627294912</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T34" t="n">
-        <v>26.7539638887914</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U34" t="n">
-        <v>26.7539638887914</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V34" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W34" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X34" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C35" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D35" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E35" t="n">
-        <v>82.49138865710684</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F35" t="n">
-        <v>54.62267627294912</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G35" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H35" t="n">
         <v>2.207202020825291</v>
@@ -6940,10 +6940,10 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K35" t="n">
-        <v>2.207202020825291</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L35" t="n">
-        <v>2.207202020825291</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M35" t="n">
         <v>28.41772601812563</v>
@@ -6964,25 +6964,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S35" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T35" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U35" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V35" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W35" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X35" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="36">
@@ -7022,19 +7022,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L36" t="n">
-        <v>28.41772601812563</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M36" t="n">
-        <v>55.73185102583861</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N36" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O36" t="n">
-        <v>83.04597603355158</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P36" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q36" t="n">
         <v>110.3601010412646</v>
@@ -7043,19 +7043,19 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S36" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="T36" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="U36" t="n">
         <v>82.49138865710684</v>
       </c>
-      <c r="T36" t="n">
+      <c r="V36" t="n">
         <v>54.62267627294912</v>
       </c>
-      <c r="U36" t="n">
+      <c r="W36" t="n">
         <v>26.7539638887914</v>
-      </c>
-      <c r="V36" t="n">
-        <v>26.7539638887914</v>
-      </c>
-      <c r="W36" t="n">
-        <v>2.207202020825291</v>
       </c>
       <c r="X36" t="n">
         <v>2.207202020825291</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.3601010412646</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C37" t="n">
-        <v>110.3601010412646</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D37" t="n">
-        <v>110.3601010412646</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E37" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F37" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G37" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H37" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I37" t="n">
         <v>2.207202020825291</v>
@@ -7122,25 +7122,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S37" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T37" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U37" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V37" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W37" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X37" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y37" t="n">
-        <v>110.3601010412646</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C38" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D38" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E38" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F38" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="G38" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="H38" t="n">
-        <v>30.07591440498301</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I38" t="n">
         <v>2.207202020825291</v>
@@ -7177,13 +7177,13 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K38" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L38" t="n">
-        <v>55.73185102583861</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M38" t="n">
-        <v>55.73185102583861</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N38" t="n">
         <v>55.73185102583861</v>
@@ -7198,10 +7198,10 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R38" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S38" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T38" t="n">
         <v>54.62267627294912</v>
@@ -7213,13 +7213,13 @@
         <v>54.62267627294912</v>
       </c>
       <c r="W38" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X38" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y38" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C39" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D39" t="n">
         <v>2.207202020825291</v>
@@ -7256,22 +7256,22 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K39" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L39" t="n">
-        <v>29.52132702853827</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M39" t="n">
         <v>55.73185102583861</v>
       </c>
       <c r="N39" t="n">
-        <v>83.04597603355158</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O39" t="n">
         <v>83.04597603355158</v>
       </c>
       <c r="P39" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q39" t="n">
         <v>110.3601010412646</v>
@@ -7283,22 +7283,22 @@
         <v>110.3601010412646</v>
       </c>
       <c r="T39" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="U39" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="V39" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="W39" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="X39" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="Y39" t="n">
         <v>82.49138865710684</v>
-      </c>
-      <c r="U39" t="n">
-        <v>54.62267627294912</v>
-      </c>
-      <c r="V39" t="n">
-        <v>54.62267627294912</v>
-      </c>
-      <c r="W39" t="n">
-        <v>54.62267627294912</v>
-      </c>
-      <c r="X39" t="n">
-        <v>26.7539638887914</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="40">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.49138865710684</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C40" t="n">
-        <v>57.94462678914073</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D40" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E40" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F40" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G40" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H40" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I40" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="J40" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="K40" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L40" t="n">
-        <v>29.52132702853827</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M40" t="n">
-        <v>56.83545203625125</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N40" t="n">
-        <v>84.14957704396423</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O40" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P40" t="n">
         <v>110.3601010412646</v>
@@ -7365,19 +7365,19 @@
         <v>110.3601010412646</v>
       </c>
       <c r="U40" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V40" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W40" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X40" t="n">
-        <v>82.49138865710684</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.49138865710684</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C41" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D41" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E41" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F41" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G41" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H41" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I41" t="n">
         <v>2.207202020825291</v>
@@ -7414,19 +7414,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K41" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="L41" t="n">
         <v>29.52132702853827</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>56.83545203625125</v>
       </c>
-      <c r="M41" t="n">
-        <v>84.14957704396423</v>
-      </c>
       <c r="N41" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O41" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P41" t="n">
         <v>110.3601010412646</v>
@@ -7435,28 +7435,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R41" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S41" t="n">
-        <v>110.3601010412646</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T41" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U41" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V41" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W41" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X41" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y41" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>54.62267627294912</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C42" t="n">
-        <v>54.62267627294912</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="D42" t="n">
-        <v>54.62267627294912</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="E42" t="n">
-        <v>54.62267627294912</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="F42" t="n">
-        <v>54.62267627294912</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="G42" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H42" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I42" t="n">
         <v>2.207202020825291</v>
@@ -7493,19 +7493,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K42" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L42" t="n">
         <v>29.52132702853827</v>
       </c>
       <c r="M42" t="n">
+        <v>29.52132702853827</v>
+      </c>
+      <c r="N42" t="n">
         <v>55.73185102583861</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>83.04597603355158</v>
-      </c>
-      <c r="O42" t="n">
-        <v>110.3601010412646</v>
       </c>
       <c r="P42" t="n">
         <v>110.3601010412646</v>
@@ -7517,25 +7517,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S42" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T42" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U42" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V42" t="n">
-        <v>54.62267627294912</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W42" t="n">
-        <v>54.62267627294912</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X42" t="n">
-        <v>54.62267627294912</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y42" t="n">
-        <v>54.62267627294912</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C43" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D43" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E43" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F43" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G43" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H43" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I43" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="J43" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K43" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L43" t="n">
-        <v>29.52132702853827</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M43" t="n">
-        <v>56.83545203625125</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N43" t="n">
-        <v>84.14957704396423</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O43" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P43" t="n">
         <v>110.3601010412646</v>
@@ -7593,28 +7593,28 @@
         <v>82.49138865710684</v>
       </c>
       <c r="R43" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="S43" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T43" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U43" t="n">
-        <v>54.62267627294912</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V43" t="n">
-        <v>26.7539638887914</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W43" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X43" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y43" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>57.94462678914073</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C44" t="n">
-        <v>30.07591440498301</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D44" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E44" t="n">
-        <v>30.07591440498301</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F44" t="n">
-        <v>30.07591440498301</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G44" t="n">
         <v>2.207202020825291</v>
@@ -7651,19 +7651,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K44" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="M44" t="n">
         <v>29.52132702853827</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>56.83545203625125</v>
       </c>
-      <c r="M44" t="n">
-        <v>84.14957704396423</v>
-      </c>
-      <c r="N44" t="n">
-        <v>84.14957704396423</v>
-      </c>
       <c r="O44" t="n">
-        <v>84.14957704396423</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P44" t="n">
         <v>110.3601010412646</v>
@@ -7675,25 +7675,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S44" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T44" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U44" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V44" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W44" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X44" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y44" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C45" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D45" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E45" t="n">
         <v>2.207202020825291</v>
@@ -7730,13 +7730,13 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K45" t="n">
-        <v>2.207202020825291</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L45" t="n">
-        <v>2.207202020825291</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M45" t="n">
-        <v>2.207202020825291</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N45" t="n">
         <v>28.41772601812563</v>
@@ -7751,28 +7751,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R45" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S45" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T45" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U45" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V45" t="n">
-        <v>82.49138865710684</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W45" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X45" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y45" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C46" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D46" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E46" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F46" t="n">
         <v>2.207202020825291</v>
@@ -7809,19 +7809,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K46" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L46" t="n">
-        <v>31.39257439093933</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M46" t="n">
-        <v>58.7066993986523</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N46" t="n">
-        <v>86.02082440636528</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O46" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P46" t="n">
         <v>110.3601010412646</v>
@@ -7830,28 +7830,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R46" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="S46" t="n">
         <v>82.49138865710684</v>
       </c>
-      <c r="S46" t="n">
-        <v>54.62267627294912</v>
-      </c>
       <c r="T46" t="n">
-        <v>30.07591440498301</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U46" t="n">
-        <v>2.207202020825291</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V46" t="n">
-        <v>2.207202020825291</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W46" t="n">
-        <v>2.207202020825291</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X46" t="n">
-        <v>2.207202020825291</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.207202020825291</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
   </sheetData>
@@ -9728,16 +9728,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>160.4496841792801</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q24" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9880,19 +9880,19 @@
         <v>247.6798763052967</v>
       </c>
       <c r="L26" t="n">
-        <v>262.2416917349371</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M26" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O26" t="n">
-        <v>257.6882366820029</v>
+        <v>256.5734881866366</v>
       </c>
       <c r="P26" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>164.3167157393088</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L27" t="n">
         <v>166.1444050401903</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P27" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10120,13 +10120,13 @@
         <v>263.3564402303034</v>
       </c>
       <c r="M29" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
         <v>255.8883403615407</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P29" t="n">
         <v>231.2329957552695</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L30" t="n">
         <v>166.1444050401903</v>
       </c>
       <c r="M30" t="n">
-        <v>168.6093106869682</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>170.1862697047606</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P30" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10351,19 +10351,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L32" t="n">
-        <v>262.2416917349371</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M32" t="n">
-        <v>257.9362584875889</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N32" t="n">
         <v>257.0030888569071</v>
       </c>
       <c r="O32" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
         <v>231.2329957552695</v>
@@ -10430,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L33" t="n">
         <v>166.1444050401903</v>
       </c>
       <c r="M33" t="n">
-        <v>168.6093106869682</v>
+        <v>168.6093106869681</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
@@ -10445,7 +10445,7 @@
         <v>170.1862697047606</v>
       </c>
       <c r="P33" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10588,13 +10588,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L35" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
-        <v>256.8215099922226</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
         <v>257.0030888569071</v>
@@ -10670,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>165.029656544824</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>169.7240591823345</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O36" t="n">
         <v>170.1862697047606</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>160.4496841792801</v>
       </c>
       <c r="Q36" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,16 +10825,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>262.2416917349371</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O38" t="n">
         <v>257.6882366820029</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L39" t="n">
-        <v>166.1444050401903</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M39" t="n">
-        <v>168.6093106869681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q39" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>263.3564402303034</v>
@@ -11077,7 +11077,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L42" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>168.6093106869681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>158.9317373436494</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O42" t="n">
         <v>170.1862697047606</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11299,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
         <v>257.9362584875889</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>256.5734881866366</v>
       </c>
       <c r="P44" t="n">
-        <v>257.7082725202193</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>164.3167157393088</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -11387,7 +11387,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>157.8169888482831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>170.1862697047606</v>
@@ -24217,10 +24217,10 @@
         <v>281.7725359196186</v>
       </c>
       <c r="F23" t="n">
-        <v>279.1281863287521</v>
+        <v>306.7182115890683</v>
       </c>
       <c r="G23" t="n">
-        <v>315.1449033624919</v>
+        <v>287.5548781021757</v>
       </c>
       <c r="H23" t="n">
         <v>239.316967963124</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>22.12125852819041</v>
+        <v>25.4099895392201</v>
       </c>
       <c r="S23" t="n">
-        <v>108.8622354336022</v>
+        <v>81.27221017328607</v>
       </c>
       <c r="T23" t="n">
         <v>122.9380154114882</v>
@@ -24274,7 +24274,7 @@
         <v>269.5732665258259</v>
       </c>
       <c r="Y23" t="n">
-        <v>261.778810254124</v>
+        <v>286.0801045034104</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38.78532423690807</v>
+        <v>66.37534949722421</v>
       </c>
       <c r="C24" t="n">
         <v>44.96063957535647</v>
@@ -24347,13 +24347,13 @@
         <v>132.6427529967821</v>
       </c>
       <c r="W24" t="n">
-        <v>123.9471237479603</v>
+        <v>139.3134648428433</v>
       </c>
       <c r="X24" t="n">
-        <v>93.39146688540121</v>
+        <v>78.0251257905182</v>
       </c>
       <c r="Y24" t="n">
-        <v>105.5248616246612</v>
+        <v>77.93483636434509</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>55.37285178000771</v>
+        <v>79.67414602929416</v>
       </c>
       <c r="C25" t="n">
         <v>67.0889869459847</v>
@@ -24381,10 +24381,10 @@
         <v>67.83314520581563</v>
       </c>
       <c r="H25" t="n">
-        <v>62.06933835479644</v>
+        <v>34.4793130944803</v>
       </c>
       <c r="I25" t="n">
-        <v>55.29264077461515</v>
+        <v>27.70261551429901</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>49.54553196421021</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S25" t="n">
-        <v>96.26873862401298</v>
+        <v>123.8587638843291</v>
       </c>
       <c r="T25" t="n">
-        <v>100.1977300153222</v>
+        <v>127.7877552756384</v>
       </c>
       <c r="U25" t="n">
-        <v>186.1611952038477</v>
+        <v>158.5711699435316</v>
       </c>
       <c r="V25" t="n">
-        <v>151.9798091711849</v>
+        <v>127.6785149218984</v>
       </c>
       <c r="W25" t="n">
         <v>186.3651641839479</v>
@@ -24451,19 +24451,19 @@
         <v>265.2864087692679</v>
       </c>
       <c r="E26" t="n">
-        <v>264.9437119605305</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F26" t="n">
-        <v>289.8893876299802</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G26" t="n">
         <v>301.6048104144335</v>
       </c>
       <c r="H26" t="n">
-        <v>250.0781692643521</v>
+        <v>222.488144004036</v>
       </c>
       <c r="I26" t="n">
-        <v>121.0792567189908</v>
+        <v>93.48923145867469</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>60.4724850897346</v>
+        <v>32.88245982941847</v>
       </c>
       <c r="S26" t="n">
         <v>119.6234367348303</v>
@@ -24508,7 +24508,7 @@
         <v>259.8443358659979</v>
       </c>
       <c r="X26" t="n">
-        <v>252.7444425667378</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y26" t="n">
         <v>296.8413058046385</v>
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77.13655079845226</v>
+        <v>49.54652553813612</v>
       </c>
       <c r="C27" t="n">
-        <v>55.72184087658452</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D27" t="n">
-        <v>58.04843271322368</v>
+        <v>39.75712588993053</v>
       </c>
       <c r="E27" t="n">
-        <v>68.24844760398587</v>
+        <v>40.65842234366973</v>
       </c>
       <c r="F27" t="n">
         <v>55.6725795419688</v>
@@ -24539,7 +24539,7 @@
         <v>47.94688431179556</v>
       </c>
       <c r="H27" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24578,19 +24578,19 @@
         <v>110.7680958434065</v>
       </c>
       <c r="U27" t="n">
-        <v>123.0046562815013</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V27" t="n">
         <v>143.4039542980102</v>
       </c>
       <c r="W27" t="n">
-        <v>134.7083250491884</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X27" t="n">
         <v>116.3763523520624</v>
       </c>
       <c r="Y27" t="n">
-        <v>88.69603766557314</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>62.84532207020608</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C28" t="n">
         <v>77.85018824721276</v>
@@ -24618,7 +24618,7 @@
         <v>51.00432124672754</v>
       </c>
       <c r="H28" t="n">
-        <v>72.8305396560245</v>
+        <v>45.24051439570836</v>
       </c>
       <c r="I28" t="n">
         <v>66.05384207584321</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>87.89675852575441</v>
+        <v>60.30673326543827</v>
       </c>
       <c r="S28" t="n">
         <v>134.6199651855572</v>
@@ -24660,16 +24660,16 @@
         <v>196.9223965050758</v>
       </c>
       <c r="V28" t="n">
-        <v>162.7410104724129</v>
+        <v>142.4022634883842</v>
       </c>
       <c r="W28" t="n">
         <v>197.1263654851759</v>
       </c>
       <c r="X28" t="n">
-        <v>115.9742755535933</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y28" t="n">
-        <v>101.5979952403636</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="29">
@@ -24688,10 +24688,10 @@
         <v>265.2864087692679</v>
       </c>
       <c r="E29" t="n">
-        <v>264.9437119605306</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F29" t="n">
-        <v>289.8893876299803</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G29" t="n">
         <v>325.90610466372</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>60.4724850897346</v>
+        <v>32.88245982941847</v>
       </c>
       <c r="S29" t="n">
         <v>95.32214248554381</v>
@@ -24745,7 +24745,7 @@
         <v>259.8443358659979</v>
       </c>
       <c r="X29" t="n">
-        <v>280.334467827054</v>
+        <v>252.7444425667379</v>
       </c>
       <c r="Y29" t="n">
         <v>269.2512805443224</v>
@@ -24764,16 +24764,16 @@
         <v>83.31186613690066</v>
       </c>
       <c r="D30" t="n">
-        <v>58.04843271322368</v>
+        <v>44.5083397651653</v>
       </c>
       <c r="E30" t="n">
-        <v>68.24844760398587</v>
+        <v>40.65842234366973</v>
       </c>
       <c r="F30" t="n">
-        <v>55.6725795419688</v>
+        <v>28.08255428165266</v>
       </c>
       <c r="G30" t="n">
-        <v>47.94688431179556</v>
+        <v>20.35685905147942</v>
       </c>
       <c r="H30" t="n">
         <v>22.83881138508139</v>
@@ -24809,19 +24809,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>54.69651299210661</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T30" t="n">
-        <v>97.22800289534814</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U30" t="n">
         <v>136.5447492295597</v>
       </c>
       <c r="V30" t="n">
-        <v>115.8139290376941</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W30" t="n">
-        <v>134.7083250491884</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X30" t="n">
         <v>116.3763523520624</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.43534733052222</v>
+        <v>70.09660034649347</v>
       </c>
       <c r="C31" t="n">
         <v>77.85018824721276</v>
@@ -24858,10 +24858,10 @@
         <v>72.8305396560245</v>
       </c>
       <c r="I31" t="n">
-        <v>66.05384207584321</v>
+        <v>38.46381681552707</v>
       </c>
       <c r="J31" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>138.5489565768664</v>
       </c>
       <c r="U31" t="n">
-        <v>172.6211022557894</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V31" t="n">
-        <v>135.1509852120968</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W31" t="n">
-        <v>169.5363402248598</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X31" t="n">
         <v>108.7229972773059</v>
       </c>
       <c r="Y31" t="n">
-        <v>129.1880205006797</v>
+        <v>101.5979952403636</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>251.1857652185034</v>
+        <v>278.7757904788195</v>
       </c>
       <c r="C32" t="n">
-        <v>233.7248153260304</v>
+        <v>261.3148405863465</v>
       </c>
       <c r="D32" t="n">
-        <v>223.1349651757058</v>
+        <v>250.7249904360219</v>
       </c>
       <c r="E32" t="n">
-        <v>253.6710246383143</v>
+        <v>277.9723188876007</v>
       </c>
       <c r="F32" t="n">
-        <v>302.9179945570504</v>
+        <v>302.9179945570503</v>
       </c>
       <c r="G32" t="n">
         <v>311.344686330474</v>
       </c>
       <c r="H32" t="n">
-        <v>235.5167509311061</v>
+        <v>207.9267256707899</v>
       </c>
       <c r="I32" t="n">
-        <v>106.5178383857449</v>
+        <v>106.5178383857448</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>45.91106675648865</v>
+        <v>21.60977250720215</v>
       </c>
       <c r="S32" t="n">
         <v>105.0620184015843</v>
       </c>
       <c r="T32" t="n">
-        <v>119.1377983794703</v>
+        <v>91.54777311915414</v>
       </c>
       <c r="U32" t="n">
-        <v>147.3876017231755</v>
+        <v>119.7975764628593</v>
       </c>
       <c r="V32" t="n">
-        <v>223.7942072854739</v>
+        <v>223.7942072854738</v>
       </c>
       <c r="W32" t="n">
-        <v>245.282917532752</v>
+        <v>245.2829175327519</v>
       </c>
       <c r="X32" t="n">
-        <v>265.773049493808</v>
+        <v>265.7730494938079</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.2798874713926</v>
+        <v>282.2798874713925</v>
       </c>
     </row>
     <row r="33">
@@ -24995,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>62.57513246520631</v>
+        <v>62.57513246520627</v>
       </c>
       <c r="C33" t="n">
-        <v>52.72654660620369</v>
+        <v>68.75044780365467</v>
       </c>
       <c r="D33" t="n">
-        <v>43.48701437997772</v>
+        <v>43.48701437997768</v>
       </c>
       <c r="E33" t="n">
-        <v>53.68702927073991</v>
+        <v>53.68702927073987</v>
       </c>
       <c r="F33" t="n">
-        <v>41.11116120872285</v>
+        <v>41.11116120872281</v>
       </c>
       <c r="G33" t="n">
-        <v>33.3854659785496</v>
+        <v>5.795440718233422</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25046,22 +25046,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>67.72511991917679</v>
+        <v>67.72511991917675</v>
       </c>
       <c r="T33" t="n">
-        <v>68.61665224984444</v>
+        <v>96.20667751016053</v>
       </c>
       <c r="U33" t="n">
-        <v>94.39330563599765</v>
+        <v>94.39330563599761</v>
       </c>
       <c r="V33" t="n">
-        <v>128.8425359647642</v>
+        <v>101.2525107044481</v>
       </c>
       <c r="W33" t="n">
-        <v>147.7369319762586</v>
+        <v>131.7130307788075</v>
       </c>
       <c r="X33" t="n">
-        <v>74.22490875850031</v>
+        <v>101.8149340188164</v>
       </c>
       <c r="Y33" t="n">
         <v>101.7246445926433</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.87392899727627</v>
+        <v>75.87392899727622</v>
       </c>
       <c r="C34" t="n">
-        <v>63.2887699139668</v>
+        <v>63.28876991396676</v>
       </c>
       <c r="D34" t="n">
-        <v>44.65742183355133</v>
+        <v>44.65742183355128</v>
       </c>
       <c r="E34" t="n">
-        <v>42.47591146190814</v>
+        <v>42.4759114619081</v>
       </c>
       <c r="F34" t="n">
-        <v>41.46299683827021</v>
+        <v>41.46299683827017</v>
       </c>
       <c r="G34" t="n">
-        <v>64.03292817379773</v>
+        <v>64.03292817379769</v>
       </c>
       <c r="H34" t="n">
-        <v>58.26912132277855</v>
+        <v>30.67909606246236</v>
       </c>
       <c r="I34" t="n">
-        <v>51.49242374259725</v>
+        <v>23.90239848228107</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>45.74531493219231</v>
+        <v>49.03404594322195</v>
       </c>
       <c r="S34" t="n">
-        <v>92.46852159199508</v>
+        <v>120.0585468523112</v>
       </c>
       <c r="T34" t="n">
-        <v>96.39751298330432</v>
+        <v>96.39751298330428</v>
       </c>
       <c r="U34" t="n">
-        <v>182.3609781718299</v>
+        <v>182.3609781718298</v>
       </c>
       <c r="V34" t="n">
-        <v>123.8782978898805</v>
+        <v>148.1795921391669</v>
       </c>
       <c r="W34" t="n">
-        <v>182.56494715193</v>
+        <v>182.5649471519299</v>
       </c>
       <c r="X34" t="n">
         <v>121.7516042043761</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.6266021674338</v>
+        <v>114.6266021674337</v>
       </c>
     </row>
     <row r="35">
@@ -25162,19 +25162,19 @@
         <v>250.7249904360219</v>
       </c>
       <c r="E35" t="n">
-        <v>250.3822936272846</v>
+        <v>277.9723188876007</v>
       </c>
       <c r="F35" t="n">
-        <v>275.3279692967343</v>
+        <v>302.9179945570503</v>
       </c>
       <c r="G35" t="n">
-        <v>283.7546610701579</v>
+        <v>311.344686330474</v>
       </c>
       <c r="H35" t="n">
-        <v>211.2154566818197</v>
+        <v>207.9267256707899</v>
       </c>
       <c r="I35" t="n">
-        <v>106.5178383857449</v>
+        <v>106.5178383857448</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>45.91106675648865</v>
+        <v>45.91106675648861</v>
       </c>
       <c r="S35" t="n">
-        <v>105.0620184015843</v>
+        <v>77.47199314126813</v>
       </c>
       <c r="T35" t="n">
         <v>119.1377983794703</v>
       </c>
       <c r="U35" t="n">
-        <v>147.3876017231755</v>
+        <v>119.7975764628593</v>
       </c>
       <c r="V35" t="n">
-        <v>223.7942072854739</v>
+        <v>199.4929130361874</v>
       </c>
       <c r="W35" t="n">
-        <v>245.282917532752</v>
+        <v>245.2829175327519</v>
       </c>
       <c r="X35" t="n">
-        <v>265.773049493808</v>
+        <v>265.7730494938079</v>
       </c>
       <c r="Y35" t="n">
-        <v>282.2798874713926</v>
+        <v>282.2798874713925</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>62.57513246520631</v>
+        <v>62.57513246520627</v>
       </c>
       <c r="C36" t="n">
-        <v>68.75044780365471</v>
+        <v>68.75044780365467</v>
       </c>
       <c r="D36" t="n">
-        <v>43.48701437997772</v>
+        <v>43.48701437997768</v>
       </c>
       <c r="E36" t="n">
-        <v>53.68702927073991</v>
+        <v>53.68702927073987</v>
       </c>
       <c r="F36" t="n">
-        <v>41.11116120872285</v>
+        <v>41.11116120872281</v>
       </c>
       <c r="G36" t="n">
-        <v>33.3854659785496</v>
+        <v>33.38546597854956</v>
       </c>
       <c r="H36" t="n">
-        <v>8.277393051835432</v>
+        <v>8.277393051835389</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,22 +25283,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>40.13509465886065</v>
+        <v>67.72511991917675</v>
       </c>
       <c r="T36" t="n">
-        <v>68.61665224984444</v>
+        <v>96.20667751016053</v>
       </c>
       <c r="U36" t="n">
-        <v>94.39330563599765</v>
+        <v>94.39330563599761</v>
       </c>
       <c r="V36" t="n">
-        <v>128.8425359647642</v>
+        <v>101.2525107044481</v>
       </c>
       <c r="W36" t="n">
-        <v>123.4356377269721</v>
+        <v>120.1469067159424</v>
       </c>
       <c r="X36" t="n">
-        <v>101.8149340188164</v>
+        <v>77.51363976952995</v>
       </c>
       <c r="Y36" t="n">
         <v>101.7246445926433</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>75.87392899727627</v>
+        <v>75.87392899727622</v>
       </c>
       <c r="C37" t="n">
-        <v>63.2887699139668</v>
+        <v>63.28876991396676</v>
       </c>
       <c r="D37" t="n">
-        <v>44.65742183355133</v>
+        <v>44.65742183355128</v>
       </c>
       <c r="E37" t="n">
-        <v>42.47591146190814</v>
+        <v>18.17461721262164</v>
       </c>
       <c r="F37" t="n">
-        <v>17.16170258898376</v>
+        <v>41.46299683827017</v>
       </c>
       <c r="G37" t="n">
-        <v>36.44290291348159</v>
+        <v>64.03292817379769</v>
       </c>
       <c r="H37" t="n">
-        <v>30.67909606246241</v>
+        <v>58.2691213227785</v>
       </c>
       <c r="I37" t="n">
-        <v>23.90239848228111</v>
+        <v>51.49242374259721</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>73.33534019250845</v>
+        <v>73.33534019250841</v>
       </c>
       <c r="S37" t="n">
-        <v>120.0585468523112</v>
+        <v>92.46852159199504</v>
       </c>
       <c r="T37" t="n">
-        <v>123.9875382436205</v>
+        <v>123.9875382436204</v>
       </c>
       <c r="U37" t="n">
-        <v>182.3609781718299</v>
+        <v>182.3609781718298</v>
       </c>
       <c r="V37" t="n">
-        <v>148.179592139167</v>
+        <v>120.5895668788508</v>
       </c>
       <c r="W37" t="n">
-        <v>182.56494715193</v>
+        <v>182.5649471519299</v>
       </c>
       <c r="X37" t="n">
         <v>121.7516042043761</v>
       </c>
       <c r="Y37" t="n">
-        <v>114.6266021674338</v>
+        <v>87.03657690711758</v>
       </c>
     </row>
     <row r="38">
@@ -25402,16 +25402,16 @@
         <v>277.9723188876007</v>
       </c>
       <c r="F38" t="n">
-        <v>302.9179945570504</v>
+        <v>302.9179945570503</v>
       </c>
       <c r="G38" t="n">
         <v>311.344686330474</v>
       </c>
       <c r="H38" t="n">
-        <v>235.5167509311061</v>
+        <v>207.9267256707899</v>
       </c>
       <c r="I38" t="n">
-        <v>78.92781312542874</v>
+        <v>82.2165441364584</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>45.91106675648865</v>
+        <v>18.32104149617247</v>
       </c>
       <c r="S38" t="n">
-        <v>77.47199314126817</v>
+        <v>77.47199314126813</v>
       </c>
       <c r="T38" t="n">
-        <v>91.54777311915419</v>
+        <v>119.1377983794703</v>
       </c>
       <c r="U38" t="n">
-        <v>147.3876017231755</v>
+        <v>147.3876017231754</v>
       </c>
       <c r="V38" t="n">
-        <v>223.7942072854739</v>
+        <v>223.7942072854738</v>
       </c>
       <c r="W38" t="n">
-        <v>220.9816232834655</v>
+        <v>245.2829175327519</v>
       </c>
       <c r="X38" t="n">
-        <v>265.773049493808</v>
+        <v>265.7730494938079</v>
       </c>
       <c r="Y38" t="n">
-        <v>282.2798874713926</v>
+        <v>282.2798874713925</v>
       </c>
     </row>
     <row r="39">
@@ -25469,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>62.57513246520631</v>
+        <v>34.98510720489013</v>
       </c>
       <c r="C39" t="n">
-        <v>68.75044780365471</v>
+        <v>41.16042254333853</v>
       </c>
       <c r="D39" t="n">
-        <v>43.48701437997772</v>
+        <v>19.18572013069123</v>
       </c>
       <c r="E39" t="n">
-        <v>53.68702927073991</v>
+        <v>53.68702927073987</v>
       </c>
       <c r="F39" t="n">
-        <v>41.11116120872285</v>
+        <v>41.11116120872281</v>
       </c>
       <c r="G39" t="n">
-        <v>33.3854659785496</v>
+        <v>33.38546597854956</v>
       </c>
       <c r="H39" t="n">
-        <v>8.277393051835432</v>
+        <v>8.277393051835389</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>67.72511991917679</v>
+        <v>67.72511991917675</v>
       </c>
       <c r="T39" t="n">
-        <v>68.61665224984444</v>
+        <v>96.20667751016053</v>
       </c>
       <c r="U39" t="n">
-        <v>94.39330563599765</v>
+        <v>121.9833308963137</v>
       </c>
       <c r="V39" t="n">
         <v>128.8425359647642</v>
       </c>
       <c r="W39" t="n">
-        <v>147.7369319762586</v>
+        <v>147.7369319762585</v>
       </c>
       <c r="X39" t="n">
-        <v>74.22490875850031</v>
+        <v>101.8149340188164</v>
       </c>
       <c r="Y39" t="n">
-        <v>77.42335034335687</v>
+        <v>74.13461933232715</v>
       </c>
     </row>
     <row r="40">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>75.87392899727627</v>
+        <v>75.87392899727622</v>
       </c>
       <c r="C40" t="n">
-        <v>38.98747566468035</v>
+        <v>63.28876991396676</v>
       </c>
       <c r="D40" t="n">
-        <v>44.65742183355133</v>
+        <v>17.06739657323514</v>
       </c>
       <c r="E40" t="n">
-        <v>42.47591146190814</v>
+        <v>42.4759114619081</v>
       </c>
       <c r="F40" t="n">
-        <v>41.46299683827021</v>
+        <v>41.46299683827017</v>
       </c>
       <c r="G40" t="n">
-        <v>36.44290291348159</v>
+        <v>64.03292817379769</v>
       </c>
       <c r="H40" t="n">
-        <v>58.26912132277855</v>
+        <v>58.2691213227785</v>
       </c>
       <c r="I40" t="n">
-        <v>23.90239848228111</v>
+        <v>51.49242374259721</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>73.33534019250845</v>
+        <v>73.33534019250841</v>
       </c>
       <c r="S40" t="n">
         <v>120.0585468523112</v>
       </c>
       <c r="T40" t="n">
-        <v>123.9875382436205</v>
+        <v>123.9875382436204</v>
       </c>
       <c r="U40" t="n">
-        <v>182.3609781718299</v>
+        <v>158.0596839225433</v>
       </c>
       <c r="V40" t="n">
-        <v>148.179592139167</v>
+        <v>148.1795921391669</v>
       </c>
       <c r="W40" t="n">
         <v>154.9749218916138</v>
       </c>
       <c r="X40" t="n">
-        <v>121.7516042043761</v>
+        <v>94.16157894405994</v>
       </c>
       <c r="Y40" t="n">
-        <v>114.6266021674338</v>
+        <v>114.6266021674337</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>357.4112220290066</v>
+        <v>357.4112220290065</v>
       </c>
       <c r="C41" t="n">
-        <v>339.9502721365336</v>
+        <v>339.9502721365335</v>
       </c>
       <c r="D41" t="n">
-        <v>329.360421986209</v>
+        <v>329.3604219862089</v>
       </c>
       <c r="E41" t="n">
-        <v>329.0177251774717</v>
+        <v>356.6077504377877</v>
       </c>
       <c r="F41" t="n">
-        <v>353.9634008469213</v>
+        <v>381.5534261072374</v>
       </c>
       <c r="G41" t="n">
-        <v>389.9801178806611</v>
+        <v>389.980117880661</v>
       </c>
       <c r="H41" t="n">
-        <v>286.562157220977</v>
+        <v>314.1521824812931</v>
       </c>
       <c r="I41" t="n">
-        <v>160.8519756866455</v>
+        <v>185.1532699359319</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>124.5464983066757</v>
+        <v>96.95647304635948</v>
       </c>
       <c r="S41" t="n">
-        <v>183.6974499517713</v>
+        <v>159.3961557024848</v>
       </c>
       <c r="T41" t="n">
-        <v>197.7732299296574</v>
+        <v>170.1832046693412</v>
       </c>
       <c r="U41" t="n">
-        <v>226.0230332733625</v>
+        <v>226.0230332733624</v>
       </c>
       <c r="V41" t="n">
         <v>302.4296388356609</v>
@@ -25696,7 +25696,7 @@
         <v>344.408481043995</v>
       </c>
       <c r="Y41" t="n">
-        <v>360.9153190215796</v>
+        <v>333.3252937612634</v>
       </c>
     </row>
     <row r="42">
@@ -25715,19 +25715,19 @@
         <v>122.1224459301647</v>
       </c>
       <c r="E42" t="n">
-        <v>132.3224608209269</v>
+        <v>108.0211665716404</v>
       </c>
       <c r="F42" t="n">
-        <v>119.7465927589099</v>
+        <v>92.15656749859367</v>
       </c>
       <c r="G42" t="n">
-        <v>84.43087226842049</v>
+        <v>84.43087226842043</v>
       </c>
       <c r="H42" t="n">
-        <v>86.91282460202245</v>
+        <v>59.32279934170626</v>
       </c>
       <c r="I42" t="n">
-        <v>39.77271896765462</v>
+        <v>64.07401321694101</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>74.83521451816912</v>
+        <v>74.83521451816907</v>
       </c>
       <c r="S42" t="n">
-        <v>118.7705262090477</v>
+        <v>146.3605514693638</v>
       </c>
       <c r="T42" t="n">
-        <v>174.8421090603476</v>
+        <v>174.8421090603475</v>
       </c>
       <c r="U42" t="n">
-        <v>200.6187624465008</v>
+        <v>200.6187624465007</v>
       </c>
       <c r="V42" t="n">
-        <v>179.8879422546351</v>
+        <v>207.4779675149512</v>
       </c>
       <c r="W42" t="n">
         <v>226.3723635264456</v>
       </c>
       <c r="X42" t="n">
-        <v>180.4503655690035</v>
+        <v>180.4503655690034</v>
       </c>
       <c r="Y42" t="n">
         <v>180.3600761428303</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>154.5093605474633</v>
+        <v>154.5093605474632</v>
       </c>
       <c r="C43" t="n">
         <v>141.9242014641538</v>
       </c>
       <c r="D43" t="n">
-        <v>98.9915591344519</v>
+        <v>123.2928533837383</v>
       </c>
       <c r="E43" t="n">
-        <v>121.1113430120952</v>
+        <v>121.1113430120951</v>
       </c>
       <c r="F43" t="n">
         <v>120.0984283884572</v>
@@ -25803,13 +25803,13 @@
         <v>142.6683597239847</v>
       </c>
       <c r="H43" t="n">
-        <v>136.9045528729656</v>
+        <v>136.9045528729655</v>
       </c>
       <c r="I43" t="n">
-        <v>130.1278552927843</v>
+        <v>130.1278552927842</v>
       </c>
       <c r="J43" t="n">
-        <v>68.03656048219877</v>
+        <v>40.44653522188257</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>33.24939835690424</v>
+        <v>33.24939835690418</v>
       </c>
       <c r="R43" t="n">
-        <v>151.9707717426955</v>
+        <v>127.669477493409</v>
       </c>
       <c r="S43" t="n">
-        <v>198.6939784024983</v>
+        <v>198.6939784024982</v>
       </c>
       <c r="T43" t="n">
-        <v>202.6229697938075</v>
+        <v>202.6229697938074</v>
       </c>
       <c r="U43" t="n">
-        <v>233.4063844617008</v>
+        <v>260.9964097220168</v>
       </c>
       <c r="V43" t="n">
-        <v>199.2249984290379</v>
+        <v>226.8150236893539</v>
       </c>
       <c r="W43" t="n">
-        <v>261.200378702117</v>
+        <v>233.6103534418008</v>
       </c>
       <c r="X43" t="n">
-        <v>200.3870357545632</v>
+        <v>200.3870357545631</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.2620337176208</v>
+        <v>193.2620337176207</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>329.8211967686905</v>
+        <v>357.4112220290065</v>
       </c>
       <c r="C44" t="n">
         <v>312.3602468762174</v>
       </c>
       <c r="D44" t="n">
-        <v>329.360421986209</v>
+        <v>301.7703967258927</v>
       </c>
       <c r="E44" t="n">
-        <v>356.6077504377878</v>
+        <v>329.0177251774716</v>
       </c>
       <c r="F44" t="n">
         <v>381.5534261072374</v>
       </c>
       <c r="G44" t="n">
-        <v>362.3900926203449</v>
+        <v>365.6788236313745</v>
       </c>
       <c r="H44" t="n">
-        <v>314.1521824812932</v>
+        <v>314.1521824812931</v>
       </c>
       <c r="I44" t="n">
         <v>185.1532699359319</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>124.5464983066757</v>
+        <v>124.5464983066756</v>
       </c>
       <c r="S44" t="n">
-        <v>159.3961557024849</v>
+        <v>183.6974499517713</v>
       </c>
       <c r="T44" t="n">
-        <v>197.7732299296574</v>
+        <v>197.7732299296573</v>
       </c>
       <c r="U44" t="n">
-        <v>226.0230332733625</v>
+        <v>226.0230332733624</v>
       </c>
       <c r="V44" t="n">
         <v>302.4296388356609</v>
@@ -25933,7 +25933,7 @@
         <v>344.408481043995</v>
       </c>
       <c r="Y44" t="n">
-        <v>360.9153190215796</v>
+        <v>360.9153190215795</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>113.6205387550772</v>
+        <v>141.2105640153933</v>
       </c>
       <c r="C45" t="n">
-        <v>119.7958540935256</v>
+        <v>147.3858793538417</v>
       </c>
       <c r="D45" t="n">
         <v>122.1224459301647</v>
       </c>
       <c r="E45" t="n">
-        <v>108.0211665716405</v>
+        <v>132.3224608209269</v>
       </c>
       <c r="F45" t="n">
-        <v>119.7465927589099</v>
+        <v>119.7465927589098</v>
       </c>
       <c r="G45" t="n">
         <v>112.0208975287366</v>
       </c>
       <c r="H45" t="n">
-        <v>86.91282460202245</v>
+        <v>86.9128246020224</v>
       </c>
       <c r="I45" t="n">
-        <v>64.07401321694107</v>
+        <v>64.07401321694101</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>74.83521451816912</v>
+        <v>50.53392026888262</v>
       </c>
       <c r="S45" t="n">
         <v>146.3605514693638</v>
@@ -26000,16 +26000,16 @@
         <v>147.2520838000314</v>
       </c>
       <c r="U45" t="n">
-        <v>200.6187624465008</v>
+        <v>200.6187624465007</v>
       </c>
       <c r="V45" t="n">
-        <v>207.4779675149513</v>
+        <v>179.8879422546351</v>
       </c>
       <c r="W45" t="n">
-        <v>226.3723635264456</v>
+        <v>198.7823382661294</v>
       </c>
       <c r="X45" t="n">
-        <v>180.4503655690035</v>
+        <v>180.4503655690034</v>
       </c>
       <c r="Y45" t="n">
         <v>180.3600761428303</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>154.5093605474633</v>
+        <v>130.2080662981768</v>
       </c>
       <c r="C46" t="n">
         <v>141.9242014641538</v>
@@ -26031,22 +26031,22 @@
         <v>123.2928533837383</v>
       </c>
       <c r="E46" t="n">
-        <v>121.1113430120952</v>
+        <v>93.52131775177897</v>
       </c>
       <c r="F46" t="n">
-        <v>120.0984283884572</v>
+        <v>92.50840312814104</v>
       </c>
       <c r="G46" t="n">
         <v>142.6683597239847</v>
       </c>
       <c r="H46" t="n">
-        <v>136.9045528729656</v>
+        <v>136.9045528729655</v>
       </c>
       <c r="I46" t="n">
-        <v>130.1278552927843</v>
+        <v>130.1278552927842</v>
       </c>
       <c r="J46" t="n">
-        <v>68.03656048219877</v>
+        <v>68.03656048219871</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.83942361722038</v>
+        <v>60.83942361722032</v>
       </c>
       <c r="R46" t="n">
-        <v>124.3807464823794</v>
+        <v>151.9707717426954</v>
       </c>
       <c r="S46" t="n">
         <v>171.1039531421821</v>
       </c>
       <c r="T46" t="n">
-        <v>178.321675544521</v>
+        <v>202.6229697938074</v>
       </c>
       <c r="U46" t="n">
-        <v>233.4063844617008</v>
+        <v>260.9964097220168</v>
       </c>
       <c r="V46" t="n">
-        <v>226.815023689354</v>
+        <v>226.8150236893539</v>
       </c>
       <c r="W46" t="n">
         <v>261.200378702117</v>
       </c>
       <c r="X46" t="n">
-        <v>200.3870357545632</v>
+        <v>200.3870357545631</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.2620337176208</v>
+        <v>193.2620337176207</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>492136.456110968</v>
+        <v>492136.4561109679</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>472314.8621598777</v>
+        <v>472314.8621598775</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>472314.8621598777</v>
+        <v>472314.8621598775</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498980.494976951</v>
+        <v>498980.4949769512</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498980.4949769512</v>
+        <v>498980.4949769511</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498980.4949769512</v>
+        <v>498980.494976951</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>778312.5217811865</v>
       </c>
       <c r="C2" t="n">
-        <v>778312.5217811865</v>
+        <v>778312.5217811862</v>
       </c>
       <c r="D2" t="n">
-        <v>778312.5217811865</v>
+        <v>778312.5217811863</v>
       </c>
       <c r="E2" t="n">
-        <v>408914.7838453706</v>
+        <v>408914.7838453707</v>
       </c>
       <c r="F2" t="n">
-        <v>408914.7838453711</v>
+        <v>408914.783845371</v>
       </c>
       <c r="G2" t="n">
-        <v>432452.9266622909</v>
+        <v>432452.926662291</v>
       </c>
       <c r="H2" t="n">
-        <v>432452.9266622908</v>
+        <v>432452.926662291</v>
       </c>
       <c r="I2" t="n">
-        <v>447303.7256854844</v>
+        <v>447303.7256854846</v>
       </c>
       <c r="J2" t="n">
-        <v>423765.5828685648</v>
+        <v>423765.5828685644</v>
       </c>
       <c r="K2" t="n">
-        <v>423765.5828685643</v>
+        <v>423765.5828685644</v>
       </c>
       <c r="L2" t="n">
         <v>455431.0218388389</v>
       </c>
       <c r="M2" t="n">
-        <v>455431.0218388392</v>
+        <v>455431.0218388389</v>
       </c>
       <c r="N2" t="n">
-        <v>455431.0218388392</v>
+        <v>455431.0218388393</v>
       </c>
       <c r="O2" t="n">
-        <v>278724.50637771</v>
+        <v>278724.5063777106</v>
       </c>
       <c r="P2" t="n">
-        <v>278724.50637771</v>
+        <v>278724.5063777106</v>
       </c>
     </row>
     <row r="3">
@@ -26389,13 +26389,13 @@
         <v>7336.767107248528</v>
       </c>
       <c r="J3" t="n">
-        <v>62908.34524014962</v>
+        <v>62908.3452401496</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>20258.0957075792</v>
+        <v>20258.09570757924</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26438,28 +26438,28 @@
         <v>244604.9698508521</v>
       </c>
       <c r="I4" t="n">
-        <v>252607.0155662678</v>
+        <v>252607.0155662679</v>
       </c>
       <c r="J4" t="n">
         <v>238465.1240505632</v>
       </c>
       <c r="K4" t="n">
-        <v>238465.1240505631</v>
+        <v>238465.1240505632</v>
       </c>
       <c r="L4" t="n">
-        <v>257489.9556270329</v>
+        <v>257489.955627033</v>
       </c>
       <c r="M4" t="n">
-        <v>257489.9556270329</v>
+        <v>257489.955627033</v>
       </c>
       <c r="N4" t="n">
-        <v>257489.9556270329</v>
+        <v>257489.955627033</v>
       </c>
       <c r="O4" t="n">
-        <v>151323.3650337779</v>
+        <v>151323.365033778</v>
       </c>
       <c r="P4" t="n">
-        <v>151323.3650337779</v>
+        <v>151323.365033778</v>
       </c>
     </row>
     <row r="5">
@@ -26508,10 +26508,10 @@
         <v>10417.12294087049</v>
       </c>
       <c r="O5" t="n">
-        <v>3806.320845877816</v>
+        <v>3806.320845877822</v>
       </c>
       <c r="P5" t="n">
-        <v>3806.320845877816</v>
+        <v>3806.320845877822</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>292284.9312322213</v>
+        <v>292240.7954535402</v>
       </c>
       <c r="C6" t="n">
-        <v>292284.9312322213</v>
+        <v>292240.7954535399</v>
       </c>
       <c r="D6" t="n">
-        <v>292284.9312322213</v>
+        <v>292240.79545354</v>
       </c>
       <c r="E6" t="n">
-        <v>99418.91370190558</v>
+        <v>89653.78481965043</v>
       </c>
       <c r="F6" t="n">
-        <v>170936.2199830381</v>
+        <v>161171.0911007828</v>
       </c>
       <c r="G6" t="n">
-        <v>170818.8268110778</v>
+        <v>161673.1227397943</v>
       </c>
       <c r="H6" t="n">
-        <v>179427.7878520602</v>
+        <v>170282.0837807767</v>
       </c>
       <c r="I6" t="n">
-        <v>177262.3005167623</v>
+        <v>168507.4069460892</v>
       </c>
       <c r="J6" t="n">
-        <v>113199.1545148392</v>
+        <v>103824.8361331939</v>
       </c>
       <c r="K6" t="n">
-        <v>176107.4997549883</v>
+        <v>166733.1813733435</v>
       </c>
       <c r="L6" t="n">
-        <v>167265.8475633563</v>
+        <v>158724.8302072449</v>
       </c>
       <c r="M6" t="n">
-        <v>187523.9432709357</v>
+        <v>178982.9259148241</v>
       </c>
       <c r="N6" t="n">
-        <v>187523.9432709358</v>
+        <v>178982.9259148245</v>
       </c>
       <c r="O6" t="n">
-        <v>123594.8204980543</v>
+        <v>110403.6316824401</v>
       </c>
       <c r="P6" t="n">
-        <v>123594.8204980543</v>
+        <v>110403.6316824401</v>
       </c>
     </row>
   </sheetData>
@@ -26715,19 +26715,19 @@
         <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="M2" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="N2" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="O2" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="P2" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
     </row>
     <row r="3">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89.39663285141508</v>
+        <v>89.39663285141506</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>78.63543155018702</v>
+        <v>78.63543155018701</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>25.322619634474</v>
+        <v>25.32261963447405</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.39663285141508</v>
+        <v>89.39663285141506</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.63543155018702</v>
+        <v>78.63543155018701</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -29219,7 +29219,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="J25" t="n">
-        <v>95.24932896758294</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -29240,7 +29240,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>88.05219210260454</v>
       </c>
       <c r="R25" t="n">
         <v>100.1578341526431</v>
@@ -29711,10 +29711,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>4.611589586016663</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.05219210260454</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>89.39663285141508</v>
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -29796,28 +29796,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="S32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="33">
@@ -29827,25 +29827,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -29878,25 +29878,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="34">
@@ -29906,34 +29906,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>24.15964067679301</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29948,34 +29948,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>4.611589586016663</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="S34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30033,28 +30033,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="S35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="36">
@@ -30064,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -30115,25 +30115,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="37">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="J37" t="n">
         <v>95.24932896758294</v>
@@ -30191,28 +30191,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="S37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="S38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="39">
@@ -30301,25 +30301,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -30352,25 +30352,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="40">
@@ -30380,31 +30380,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>95.24932896758294</v>
       </c>
       <c r="K40" t="n">
         <v>22.26949182588285</v>
@@ -30422,34 +30422,34 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>4.611589586016663</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="S40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="C41" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="D41" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="E41" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="F41" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="G41" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="H41" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="I41" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="S41" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="T41" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="U41" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="V41" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="W41" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="X41" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="Y41" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="C42" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="D42" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="E42" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="F42" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="G42" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="H42" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="I42" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="S42" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="T42" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="U42" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="V42" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="W42" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="X42" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="Y42" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
     </row>
     <row r="43">
@@ -30617,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="C43" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="D43" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="E43" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="F43" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="G43" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="H43" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="I43" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="J43" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>24.15964067679301</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30659,34 +30659,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>4.611589586016663</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="R43" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="S43" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="T43" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="U43" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="V43" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="W43" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="X43" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="Y43" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="C44" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="D44" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="E44" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="F44" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="G44" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="H44" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="I44" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="S44" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="T44" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="U44" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="V44" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="W44" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="X44" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="Y44" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="C45" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="D45" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="E45" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="F45" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="G45" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="H45" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="I45" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="S45" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="T45" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="U45" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="V45" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="W45" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="X45" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="Y45" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
     </row>
     <row r="46">
@@ -30854,34 +30854,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="C46" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="D46" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="E46" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="F46" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="G46" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="H46" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="I46" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="J46" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="K46" t="n">
-        <v>24.15964067679301</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30896,34 +30896,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>4.611589586016663</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="R46" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="S46" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="T46" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="U46" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="V46" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="W46" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="X46" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="Y46" t="n">
-        <v>25.32261963447401</v>
+        <v>25.32261963447407</v>
       </c>
     </row>
   </sheetData>
@@ -36448,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>26.47527676494983</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.89014885091016</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.890148850910151</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,19 +36600,19 @@
         <v>27.59002526031614</v>
       </c>
       <c r="L26" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O26" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L27" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,13 +36840,13 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>26.47527676494983</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L30" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M30" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37007,10 +37007,10 @@
         <v>24.58512791403967</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1.890148850910151</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.890148850910151</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,19 +37071,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L32" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M32" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N32" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="O32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L33" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M33" t="n">
-        <v>26.47527676494984</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="P33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1.89014885091016</v>
       </c>
       <c r="L34" t="n">
         <v>27.59002526031614</v>
@@ -37244,7 +37244,7 @@
         <v>24.58512791403967</v>
       </c>
       <c r="P34" t="n">
-        <v>1.890148850910151</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>27.59002526031614</v>
@@ -37390,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O36" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="N38" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="L38" t="n">
-        <v>26.47527676494984</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>27.59002526031614</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L39" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="M39" t="n">
-        <v>26.47527676494984</v>
-      </c>
-      <c r="N39" t="n">
+      <c r="P39" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
       <c r="Q39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1.89014885091016</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37718,7 +37718,7 @@
         <v>24.58512791403967</v>
       </c>
       <c r="P40" t="n">
-        <v>1.890148850910151</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>27.59002526031614</v>
@@ -37797,7 +37797,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>26.47527676494984</v>
-      </c>
-      <c r="N42" t="n">
-        <v>27.59002526031614</v>
       </c>
       <c r="O42" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1.89014885091016</v>
       </c>
       <c r="L43" t="n">
         <v>27.59002526031614</v>
@@ -37955,7 +37955,7 @@
         <v>24.58512791403967</v>
       </c>
       <c r="P43" t="n">
-        <v>1.890148850910151</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P44" t="n">
-        <v>26.47527676494983</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>27.59002526031614</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1.89014885091016</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>27.59002526031614</v>
@@ -38192,7 +38192,7 @@
         <v>24.58512791403967</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1.890148850910151</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
